--- a/06 Sem (tst).xlsx
+++ b/06 Sem (tst).xlsx
@@ -11320,9 +11320,6 @@
       <c r="B2" t="n">
         <v>253.95</v>
       </c>
-      <c r="C2" t="n">
-        <v>507.9</v>
-      </c>
       <c r="D2" t="n">
         <v>346</v>
       </c>
@@ -11339,9 +11336,6 @@
       <c r="B3" t="n">
         <v>303.4</v>
       </c>
-      <c r="C3" t="n">
-        <v>303.4</v>
-      </c>
       <c r="D3" t="n">
         <v>303.4</v>
       </c>
@@ -11358,9 +11352,6 @@
       <c r="B4" t="n">
         <v>235.35</v>
       </c>
-      <c r="C4" t="n">
-        <v>470.7</v>
-      </c>
       <c r="D4" t="n">
         <v>360.3</v>
       </c>
@@ -11377,9 +11368,6 @@
       <c r="B5" t="n">
         <v>345.05</v>
       </c>
-      <c r="C5" t="n">
-        <v>690.1</v>
-      </c>
       <c r="D5" t="n">
         <v>315</v>
       </c>
@@ -11396,9 +11384,6 @@
       <c r="B6" t="n">
         <v>223.4</v>
       </c>
-      <c r="C6" t="n">
-        <v>446.8</v>
-      </c>
       <c r="D6" t="n">
         <v>218.3</v>
       </c>
@@ -11415,9 +11400,6 @@
       <c r="B7" t="n">
         <v>193.3</v>
       </c>
-      <c r="C7" t="n">
-        <v>386.6</v>
-      </c>
       <c r="D7" t="n">
         <v>190.7</v>
       </c>
@@ -11434,9 +11416,6 @@
       <c r="B8" t="n">
         <v>173.85</v>
       </c>
-      <c r="C8" t="n">
-        <v>347.7</v>
-      </c>
       <c r="D8" t="n">
         <v>163.7</v>
       </c>
@@ -11453,9 +11432,6 @@
       <c r="B9" t="n">
         <v>163.15</v>
       </c>
-      <c r="C9" t="n">
-        <v>326.3</v>
-      </c>
       <c r="D9" t="n">
         <v>153.5</v>
       </c>
@@ -11472,9 +11448,6 @@
       <c r="B10" t="n">
         <v>233.65</v>
       </c>
-      <c r="C10" t="n">
-        <v>467.3</v>
-      </c>
       <c r="D10" t="n">
         <v>220.7</v>
       </c>
@@ -11491,9 +11464,6 @@
       <c r="B11" t="n">
         <v>172.15</v>
       </c>
-      <c r="C11" t="n">
-        <v>344.3</v>
-      </c>
       <c r="D11" t="n">
         <v>214.7</v>
       </c>
@@ -11510,9 +11480,6 @@
       <c r="B12" t="n">
         <v>169.75</v>
       </c>
-      <c r="C12" t="n">
-        <v>339.5</v>
-      </c>
       <c r="D12" t="n">
         <v>160.4</v>
       </c>
@@ -11529,9 +11496,6 @@
       <c r="B13" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C13" t="n">
-        <v>199.2</v>
-      </c>
       <c r="D13" t="n">
         <v>107.3</v>
       </c>
@@ -11548,9 +11512,6 @@
       <c r="B14" t="n">
         <v>99.94999999999999</v>
       </c>
-      <c r="C14" t="n">
-        <v>199.9</v>
-      </c>
       <c r="D14" t="n">
         <v>118.8</v>
       </c>
@@ -11567,9 +11528,6 @@
       <c r="B15" t="n">
         <v>111.15</v>
       </c>
-      <c r="C15" t="n">
-        <v>222.3</v>
-      </c>
       <c r="D15" t="n">
         <v>156.2</v>
       </c>
@@ -11586,9 +11544,6 @@
       <c r="B16" t="n">
         <v>115.8</v>
       </c>
-      <c r="C16" t="n">
-        <v>231.6</v>
-      </c>
       <c r="D16" t="n">
         <v>138.5</v>
       </c>
@@ -11605,9 +11560,6 @@
       <c r="B17" t="n">
         <v>141</v>
       </c>
-      <c r="C17" t="n">
-        <v>282</v>
-      </c>
       <c r="D17" t="n">
         <v>111.2</v>
       </c>
@@ -11624,9 +11576,6 @@
       <c r="B18" t="n">
         <v>121.95</v>
       </c>
-      <c r="C18" t="n">
-        <v>243.9</v>
-      </c>
       <c r="D18" t="n">
         <v>113.9</v>
       </c>
@@ -11643,9 +11592,6 @@
       <c r="B19" t="n">
         <v>187.85</v>
       </c>
-      <c r="C19" t="n">
-        <v>375.7</v>
-      </c>
       <c r="D19" t="n">
         <v>179.6</v>
       </c>
@@ -11662,9 +11608,6 @@
       <c r="B20" t="n">
         <v>121.2</v>
       </c>
-      <c r="C20" t="n">
-        <v>242.4</v>
-      </c>
       <c r="D20" t="n">
         <v>98.90000000000001</v>
       </c>
@@ -11681,9 +11624,6 @@
       <c r="B21" t="n">
         <v>67.8</v>
       </c>
-      <c r="C21" t="n">
-        <v>135.6</v>
-      </c>
       <c r="D21" t="n">
         <v>74.2</v>
       </c>
@@ -11700,9 +11640,6 @@
       <c r="B22" t="n">
         <v>108.45</v>
       </c>
-      <c r="C22" t="n">
-        <v>216.9</v>
-      </c>
       <c r="D22" t="n">
         <v>109.5</v>
       </c>
@@ -11719,9 +11656,6 @@
       <c r="B23" t="n">
         <v>121.8</v>
       </c>
-      <c r="C23" t="n">
-        <v>243.6</v>
-      </c>
       <c r="D23" t="n">
         <v>82.2</v>
       </c>
@@ -11738,9 +11672,6 @@
       <c r="B24" t="n">
         <v>16.35</v>
       </c>
-      <c r="C24" t="n">
-        <v>32.7</v>
-      </c>
       <c r="D24" t="n">
         <v>17.9</v>
       </c>
@@ -11757,9 +11688,6 @@
       <c r="B25" t="n">
         <v>50.3</v>
       </c>
-      <c r="C25" t="n">
-        <v>100.6</v>
-      </c>
       <c r="D25" t="n">
         <v>60.3</v>
       </c>
@@ -11776,9 +11704,6 @@
       <c r="B26" t="n">
         <v>75.05</v>
       </c>
-      <c r="C26" t="n">
-        <v>150.1</v>
-      </c>
       <c r="D26" t="n">
         <v>87.59999999999999</v>
       </c>
@@ -11795,9 +11720,6 @@
       <c r="B27" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="C27" t="n">
-        <v>175.8</v>
-      </c>
       <c r="D27" t="n">
         <v>89.7</v>
       </c>
@@ -11814,9 +11736,6 @@
       <c r="B28" t="n">
         <v>122.6</v>
       </c>
-      <c r="C28" t="n">
-        <v>245.2</v>
-      </c>
       <c r="D28" t="n">
         <v>109.2</v>
       </c>
@@ -11833,9 +11752,6 @@
       <c r="B29" t="n">
         <v>95.55000000000001</v>
       </c>
-      <c r="C29" t="n">
-        <v>191.1</v>
-      </c>
       <c r="D29" t="n">
         <v>65.40000000000001</v>
       </c>
@@ -11852,9 +11768,6 @@
       <c r="B30" t="n">
         <v>124.1</v>
       </c>
-      <c r="C30" t="n">
-        <v>124.1</v>
-      </c>
       <c r="D30" t="n">
         <v>124.1</v>
       </c>
@@ -11871,9 +11784,6 @@
       <c r="B31" t="n">
         <v>20.55</v>
       </c>
-      <c r="C31" t="n">
-        <v>41.1</v>
-      </c>
       <c r="D31" t="n">
         <v>26.5</v>
       </c>
@@ -11890,9 +11800,6 @@
       <c r="B32" t="n">
         <v>58.6</v>
       </c>
-      <c r="C32" t="n">
-        <v>117.2</v>
-      </c>
       <c r="D32" t="n">
         <v>69.7</v>
       </c>
@@ -11909,9 +11816,6 @@
       <c r="B33" t="n">
         <v>43</v>
       </c>
-      <c r="C33" t="n">
-        <v>86</v>
-      </c>
       <c r="D33" t="n">
         <v>49.1</v>
       </c>
@@ -11928,9 +11832,6 @@
       <c r="B34" t="n">
         <v>67.55</v>
       </c>
-      <c r="C34" t="n">
-        <v>135.1</v>
-      </c>
       <c r="D34" t="n">
         <v>101.3</v>
       </c>
@@ -11947,9 +11848,6 @@
       <c r="B35" t="n">
         <v>30.75</v>
       </c>
-      <c r="C35" t="n">
-        <v>61.5</v>
-      </c>
       <c r="D35" t="n">
         <v>31.9</v>
       </c>
@@ -11966,9 +11864,6 @@
       <c r="B36" t="n">
         <v>71.8</v>
       </c>
-      <c r="C36" t="n">
-        <v>143.6</v>
-      </c>
       <c r="D36" t="n">
         <v>55</v>
       </c>
@@ -11985,9 +11880,6 @@
       <c r="B37" t="n">
         <v>93.15000000000001</v>
       </c>
-      <c r="C37" t="n">
-        <v>186.3</v>
-      </c>
       <c r="D37" t="n">
         <v>74.09999999999999</v>
       </c>
@@ -12004,9 +11896,6 @@
       <c r="B38" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="C38" t="n">
-        <v>148.2</v>
-      </c>
       <c r="D38" t="n">
         <v>53.6</v>
       </c>
@@ -12023,9 +11912,6 @@
       <c r="B39" t="n">
         <v>36.3</v>
       </c>
-      <c r="C39" t="n">
-        <v>36.3</v>
-      </c>
       <c r="D39" t="n">
         <v>36.3</v>
       </c>
@@ -12042,9 +11928,6 @@
       <c r="B40" t="n">
         <v>36.4</v>
       </c>
-      <c r="C40" t="n">
-        <v>36.4</v>
-      </c>
       <c r="D40" t="n">
         <v>36.4</v>
       </c>
@@ -12061,9 +11944,6 @@
       <c r="B41" t="n">
         <v>21.3</v>
       </c>
-      <c r="C41" t="n">
-        <v>42.6</v>
-      </c>
       <c r="D41" t="n">
         <v>36.1</v>
       </c>
@@ -12080,9 +11960,6 @@
       <c r="B42" t="n">
         <v>93.25</v>
       </c>
-      <c r="C42" t="n">
-        <v>186.5</v>
-      </c>
       <c r="D42" t="n">
         <v>72.7</v>
       </c>
@@ -12099,9 +11976,6 @@
       <c r="B43" t="n">
         <v>97.55000000000001</v>
       </c>
-      <c r="C43" t="n">
-        <v>195.1</v>
-      </c>
       <c r="D43" t="n">
         <v>63.8</v>
       </c>
@@ -12118,9 +11992,6 @@
       <c r="B44" t="n">
         <v>37.9</v>
       </c>
-      <c r="C44" t="n">
-        <v>75.8</v>
-      </c>
       <c r="D44" t="n">
         <v>21.2</v>
       </c>
@@ -12137,9 +12008,6 @@
       <c r="B45" t="n">
         <v>25.35</v>
       </c>
-      <c r="C45" t="n">
-        <v>50.7</v>
-      </c>
       <c r="D45" t="n">
         <v>14.9</v>
       </c>
@@ -12156,9 +12024,6 @@
       <c r="B46" t="n">
         <v>23.1</v>
       </c>
-      <c r="C46" t="n">
-        <v>46.2</v>
-      </c>
       <c r="D46" t="n">
         <v>19</v>
       </c>
@@ -12175,9 +12040,6 @@
       <c r="B47" t="n">
         <v>5.75</v>
       </c>
-      <c r="C47" t="n">
-        <v>11.5</v>
-      </c>
       <c r="D47" t="n">
         <v>8.800000000000001</v>
       </c>
@@ -12194,9 +12056,6 @@
       <c r="B48" t="n">
         <v>66.7</v>
       </c>
-      <c r="C48" t="n">
-        <v>133.4</v>
-      </c>
       <c r="D48" t="n">
         <v>33.1</v>
       </c>
@@ -12213,9 +12072,6 @@
       <c r="B49" t="n">
         <v>13.6</v>
       </c>
-      <c r="C49" t="n">
-        <v>27.2</v>
-      </c>
       <c r="D49" t="n">
         <v>21.1</v>
       </c>
@@ -12232,9 +12088,6 @@
       <c r="B50" t="n">
         <v>24.2</v>
       </c>
-      <c r="C50" t="n">
-        <v>48.40000000000001</v>
-      </c>
       <c r="D50" t="n">
         <v>15.7</v>
       </c>
@@ -12251,9 +12104,6 @@
       <c r="B51" t="n">
         <v>5.55</v>
       </c>
-      <c r="C51" t="n">
-        <v>11.1</v>
-      </c>
       <c r="D51" t="n">
         <v>7.5</v>
       </c>
@@ -12270,9 +12120,6 @@
       <c r="B52" t="n">
         <v>30.4</v>
       </c>
-      <c r="C52" t="n">
-        <v>30.4</v>
-      </c>
       <c r="D52" t="n">
         <v>30.4</v>
       </c>
@@ -12289,9 +12136,6 @@
       <c r="B53" t="n">
         <v>28.65</v>
       </c>
-      <c r="C53" t="n">
-        <v>57.3</v>
-      </c>
       <c r="D53" t="n">
         <v>25.4</v>
       </c>
@@ -12308,9 +12152,6 @@
       <c r="B54" t="n">
         <v>13.9</v>
       </c>
-      <c r="C54" t="n">
-        <v>27.8</v>
-      </c>
       <c r="D54" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -12327,9 +12168,6 @@
       <c r="B55" t="n">
         <v>15.2</v>
       </c>
-      <c r="C55" t="n">
-        <v>30.4</v>
-      </c>
       <c r="D55" t="n">
         <v>8.699999999999999</v>
       </c>
@@ -12346,9 +12184,6 @@
       <c r="B56" t="n">
         <v>7.7</v>
       </c>
-      <c r="C56" t="n">
-        <v>7.7</v>
-      </c>
       <c r="D56" t="n">
         <v>7.7</v>
       </c>
@@ -12363,9 +12198,6 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C57" t="n">
         <v>2.4</v>
       </c>
       <c r="D57" t="n">
@@ -12430,9 +12262,6 @@
       <c r="B2" t="n">
         <v>2614</v>
       </c>
-      <c r="C2" t="n">
-        <v>5228</v>
-      </c>
       <c r="D2" t="n">
         <v>4019</v>
       </c>
@@ -12449,9 +12278,6 @@
       <c r="B3" t="n">
         <v>3753</v>
       </c>
-      <c r="C3" t="n">
-        <v>3753</v>
-      </c>
       <c r="D3" t="n">
         <v>3753</v>
       </c>
@@ -12468,9 +12294,6 @@
       <c r="B4" t="n">
         <v>2014.5</v>
       </c>
-      <c r="C4" t="n">
-        <v>4029</v>
-      </c>
       <c r="D4" t="n">
         <v>3343</v>
       </c>
@@ -12487,9 +12310,6 @@
       <c r="B5" t="n">
         <v>2894.5</v>
       </c>
-      <c r="C5" t="n">
-        <v>5789</v>
-      </c>
       <c r="D5" t="n">
         <v>3444</v>
       </c>
@@ -12506,9 +12326,6 @@
       <c r="B6" t="n">
         <v>1890.5</v>
       </c>
-      <c r="C6" t="n">
-        <v>3781</v>
-      </c>
       <c r="D6" t="n">
         <v>2321</v>
       </c>
@@ -12525,9 +12342,6 @@
       <c r="B7" t="n">
         <v>1663.5</v>
       </c>
-      <c r="C7" t="n">
-        <v>3327</v>
-      </c>
       <c r="D7" t="n">
         <v>1705</v>
       </c>
@@ -12544,9 +12358,6 @@
       <c r="B8" t="n">
         <v>1730</v>
       </c>
-      <c r="C8" t="n">
-        <v>3460</v>
-      </c>
       <c r="D8" t="n">
         <v>1826</v>
       </c>
@@ -12563,9 +12374,6 @@
       <c r="B9" t="n">
         <v>1482</v>
       </c>
-      <c r="C9" t="n">
-        <v>2964</v>
-      </c>
       <c r="D9" t="n">
         <v>1682</v>
       </c>
@@ -12582,9 +12390,6 @@
       <c r="B10" t="n">
         <v>2650</v>
       </c>
-      <c r="C10" t="n">
-        <v>5300</v>
-      </c>
       <c r="D10" t="n">
         <v>3082</v>
       </c>
@@ -12601,9 +12406,6 @@
       <c r="B11" t="n">
         <v>1288.5</v>
       </c>
-      <c r="C11" t="n">
-        <v>2577</v>
-      </c>
       <c r="D11" t="n">
         <v>1757</v>
       </c>
@@ -12620,9 +12422,6 @@
       <c r="B12" t="n">
         <v>1378</v>
       </c>
-      <c r="C12" t="n">
-        <v>2756</v>
-      </c>
       <c r="D12" t="n">
         <v>1535</v>
       </c>
@@ -12639,9 +12438,6 @@
       <c r="B13" t="n">
         <v>828</v>
       </c>
-      <c r="C13" t="n">
-        <v>1656</v>
-      </c>
       <c r="D13" t="n">
         <v>935</v>
       </c>
@@ -12658,9 +12454,6 @@
       <c r="B14" t="n">
         <v>645</v>
       </c>
-      <c r="C14" t="n">
-        <v>1290</v>
-      </c>
       <c r="D14" t="n">
         <v>821</v>
       </c>
@@ -12677,9 +12470,6 @@
       <c r="B15" t="n">
         <v>825</v>
       </c>
-      <c r="C15" t="n">
-        <v>1650</v>
-      </c>
       <c r="D15" t="n">
         <v>1283</v>
       </c>
@@ -12696,9 +12486,6 @@
       <c r="B16" t="n">
         <v>941</v>
       </c>
-      <c r="C16" t="n">
-        <v>1882</v>
-      </c>
       <c r="D16" t="n">
         <v>1167</v>
       </c>
@@ -12715,9 +12502,6 @@
       <c r="B17" t="n">
         <v>1267</v>
       </c>
-      <c r="C17" t="n">
-        <v>2534</v>
-      </c>
       <c r="D17" t="n">
         <v>901</v>
       </c>
@@ -12734,9 +12518,6 @@
       <c r="B18" t="n">
         <v>1232.5</v>
       </c>
-      <c r="C18" t="n">
-        <v>2465</v>
-      </c>
       <c r="D18" t="n">
         <v>1373</v>
       </c>
@@ -12753,9 +12534,6 @@
       <c r="B19" t="n">
         <v>1726.5</v>
       </c>
-      <c r="C19" t="n">
-        <v>3453</v>
-      </c>
       <c r="D19" t="n">
         <v>1801</v>
       </c>
@@ -12772,9 +12550,6 @@
       <c r="B20" t="n">
         <v>988</v>
       </c>
-      <c r="C20" t="n">
-        <v>1976</v>
-      </c>
       <c r="D20" t="n">
         <v>965</v>
       </c>
@@ -12791,9 +12566,6 @@
       <c r="B21" t="n">
         <v>494</v>
       </c>
-      <c r="C21" t="n">
-        <v>988</v>
-      </c>
       <c r="D21" t="n">
         <v>671</v>
       </c>
@@ -12810,9 +12582,6 @@
       <c r="B22" t="n">
         <v>1018.5</v>
       </c>
-      <c r="C22" t="n">
-        <v>2037</v>
-      </c>
       <c r="D22" t="n">
         <v>1022</v>
       </c>
@@ -12829,9 +12598,6 @@
       <c r="B23" t="n">
         <v>1030</v>
       </c>
-      <c r="C23" t="n">
-        <v>2060</v>
-      </c>
       <c r="D23" t="n">
         <v>612</v>
       </c>
@@ -12848,9 +12614,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
@@ -12867,9 +12630,6 @@
       <c r="B25" t="n">
         <v>404</v>
       </c>
-      <c r="C25" t="n">
-        <v>808</v>
-      </c>
       <c r="D25" t="n">
         <v>570</v>
       </c>
@@ -12886,9 +12646,6 @@
       <c r="B26" t="n">
         <v>656.5</v>
       </c>
-      <c r="C26" t="n">
-        <v>1313</v>
-      </c>
       <c r="D26" t="n">
         <v>817</v>
       </c>
@@ -12905,9 +12662,6 @@
       <c r="B27" t="n">
         <v>759</v>
       </c>
-      <c r="C27" t="n">
-        <v>1518</v>
-      </c>
       <c r="D27" t="n">
         <v>700</v>
       </c>
@@ -12924,9 +12678,6 @@
       <c r="B28" t="n">
         <v>1101.5</v>
       </c>
-      <c r="C28" t="n">
-        <v>2203</v>
-      </c>
       <c r="D28" t="n">
         <v>1026</v>
       </c>
@@ -12943,9 +12694,6 @@
       <c r="B29" t="n">
         <v>720</v>
       </c>
-      <c r="C29" t="n">
-        <v>1440</v>
-      </c>
       <c r="D29" t="n">
         <v>533</v>
       </c>
@@ -12962,9 +12710,6 @@
       <c r="B30" t="n">
         <v>1458</v>
       </c>
-      <c r="C30" t="n">
-        <v>1458</v>
-      </c>
       <c r="D30" t="n">
         <v>1458</v>
       </c>
@@ -12981,9 +12726,6 @@
       <c r="B31" t="n">
         <v>90</v>
       </c>
-      <c r="C31" t="n">
-        <v>180</v>
-      </c>
       <c r="D31" t="n">
         <v>115</v>
       </c>
@@ -13000,9 +12742,6 @@
       <c r="B32" t="n">
         <v>486.5</v>
       </c>
-      <c r="C32" t="n">
-        <v>973</v>
-      </c>
       <c r="D32" t="n">
         <v>685</v>
       </c>
@@ -13019,9 +12758,6 @@
       <c r="B33" t="n">
         <v>353</v>
       </c>
-      <c r="C33" t="n">
-        <v>706</v>
-      </c>
       <c r="D33" t="n">
         <v>521</v>
       </c>
@@ -13038,9 +12774,6 @@
       <c r="B34" t="n">
         <v>632.5</v>
       </c>
-      <c r="C34" t="n">
-        <v>1265</v>
-      </c>
       <c r="D34" t="n">
         <v>891</v>
       </c>
@@ -13057,9 +12790,6 @@
       <c r="B35" t="n">
         <v>206.5</v>
       </c>
-      <c r="C35" t="n">
-        <v>413</v>
-      </c>
       <c r="D35" t="n">
         <v>233</v>
       </c>
@@ -13076,9 +12806,6 @@
       <c r="B36" t="n">
         <v>566</v>
       </c>
-      <c r="C36" t="n">
-        <v>1132</v>
-      </c>
       <c r="D36" t="n">
         <v>508</v>
       </c>
@@ -13095,9 +12822,6 @@
       <c r="B37" t="n">
         <v>958.5</v>
       </c>
-      <c r="C37" t="n">
-        <v>1917</v>
-      </c>
       <c r="D37" t="n">
         <v>755</v>
       </c>
@@ -13114,9 +12838,6 @@
       <c r="B38" t="n">
         <v>548</v>
       </c>
-      <c r="C38" t="n">
-        <v>1096</v>
-      </c>
       <c r="D38" t="n">
         <v>468</v>
       </c>
@@ -13133,9 +12854,6 @@
       <c r="B39" t="n">
         <v>318</v>
       </c>
-      <c r="C39" t="n">
-        <v>318</v>
-      </c>
       <c r="D39" t="n">
         <v>318</v>
       </c>
@@ -13152,9 +12870,6 @@
       <c r="B40" t="n">
         <v>306</v>
       </c>
-      <c r="C40" t="n">
-        <v>306</v>
-      </c>
       <c r="D40" t="n">
         <v>306</v>
       </c>
@@ -13171,9 +12886,6 @@
       <c r="B41" t="n">
         <v>183</v>
       </c>
-      <c r="C41" t="n">
-        <v>366</v>
-      </c>
       <c r="D41" t="n">
         <v>336</v>
       </c>
@@ -13190,9 +12902,6 @@
       <c r="B42" t="n">
         <v>1103</v>
       </c>
-      <c r="C42" t="n">
-        <v>2206</v>
-      </c>
       <c r="D42" t="n">
         <v>917</v>
       </c>
@@ -13209,9 +12918,6 @@
       <c r="B43" t="n">
         <v>909.5</v>
       </c>
-      <c r="C43" t="n">
-        <v>1819</v>
-      </c>
       <c r="D43" t="n">
         <v>552</v>
       </c>
@@ -13228,9 +12934,6 @@
       <c r="B44" t="n">
         <v>309</v>
       </c>
-      <c r="C44" t="n">
-        <v>618</v>
-      </c>
       <c r="D44" t="n">
         <v>187</v>
       </c>
@@ -13247,9 +12950,6 @@
       <c r="B45" t="n">
         <v>232.5</v>
       </c>
-      <c r="C45" t="n">
-        <v>465</v>
-      </c>
       <c r="D45" t="n">
         <v>105</v>
       </c>
@@ -13266,9 +12966,6 @@
       <c r="B46" t="n">
         <v>170.5</v>
       </c>
-      <c r="C46" t="n">
-        <v>341</v>
-      </c>
       <c r="D46" t="n">
         <v>150</v>
       </c>
@@ -13285,9 +12982,6 @@
       <c r="B47" t="n">
         <v>33</v>
       </c>
-      <c r="C47" t="n">
-        <v>33</v>
-      </c>
       <c r="D47" t="n">
         <v>33</v>
       </c>
@@ -13304,9 +12998,6 @@
       <c r="B48" t="n">
         <v>535</v>
       </c>
-      <c r="C48" t="n">
-        <v>1070</v>
-      </c>
       <c r="D48" t="n">
         <v>415</v>
       </c>
@@ -13323,9 +13014,6 @@
       <c r="B49" t="n">
         <v>154.5</v>
       </c>
-      <c r="C49" t="n">
-        <v>309</v>
-      </c>
       <c r="D49" t="n">
         <v>270</v>
       </c>
@@ -13342,9 +13030,6 @@
       <c r="B50" t="n">
         <v>171</v>
       </c>
-      <c r="C50" t="n">
-        <v>342</v>
-      </c>
       <c r="D50" t="n">
         <v>151</v>
       </c>
@@ -13361,9 +13046,6 @@
       <c r="B51" t="n">
         <v>56</v>
       </c>
-      <c r="C51" t="n">
-        <v>56</v>
-      </c>
       <c r="D51" t="n">
         <v>56</v>
       </c>
@@ -13380,9 +13062,6 @@
       <c r="B52" t="n">
         <v>304</v>
       </c>
-      <c r="C52" t="n">
-        <v>304</v>
-      </c>
       <c r="D52" t="n">
         <v>304</v>
       </c>
@@ -13399,9 +13078,6 @@
       <c r="B53" t="n">
         <v>201</v>
       </c>
-      <c r="C53" t="n">
-        <v>402</v>
-      </c>
       <c r="D53" t="n">
         <v>233</v>
       </c>
@@ -13418,9 +13094,6 @@
       <c r="B54" t="n">
         <v>114</v>
       </c>
-      <c r="C54" t="n">
-        <v>228</v>
-      </c>
       <c r="D54" t="n">
         <v>89</v>
       </c>
@@ -13437,9 +13110,6 @@
       <c r="B55" t="n">
         <v>83.5</v>
       </c>
-      <c r="C55" t="n">
-        <v>167</v>
-      </c>
       <c r="D55" t="n">
         <v>68</v>
       </c>
@@ -13456,9 +13126,6 @@
       <c r="B56" t="n">
         <v>77</v>
       </c>
-      <c r="C56" t="n">
-        <v>77</v>
-      </c>
       <c r="D56" t="n">
         <v>77</v>
       </c>
@@ -13473,9 +13140,6 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
@@ -13540,9 +13204,6 @@
       <c r="B2" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="C2" t="n">
-        <v>16.9</v>
-      </c>
       <c r="D2" t="n">
         <v>9.300000000000001</v>
       </c>
@@ -13559,9 +13220,6 @@
       <c r="B3" t="n">
         <v>13.8</v>
       </c>
-      <c r="C3" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D3" t="n">
         <v>13.8</v>
       </c>
@@ -13578,9 +13236,6 @@
       <c r="B4" t="n">
         <v>0.7</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.7</v>
-      </c>
       <c r="D4" t="n">
         <v>0.7</v>
       </c>
@@ -13597,9 +13252,6 @@
       <c r="B5" t="n">
         <v>2.3</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.3</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -13616,9 +13268,6 @@
       <c r="B6" t="n">
         <v>7.800000000000001</v>
       </c>
-      <c r="C6" t="n">
-        <v>15.6</v>
-      </c>
       <c r="D6" t="n">
         <v>8.4</v>
       </c>
@@ -13635,9 +13284,6 @@
       <c r="B7" t="n">
         <v>8.100000000000001</v>
       </c>
-      <c r="C7" t="n">
-        <v>16.2</v>
-      </c>
       <c r="D7" t="n">
         <v>7.4</v>
       </c>
@@ -13654,9 +13300,6 @@
       <c r="B8" t="n">
         <v>5.1</v>
       </c>
-      <c r="C8" t="n">
-        <v>10.2</v>
-      </c>
       <c r="D8" t="n">
         <v>6.5</v>
       </c>
@@ -13673,9 +13316,6 @@
       <c r="B9" t="n">
         <v>4.1</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.1</v>
-      </c>
       <c r="D9" t="n">
         <v>4.1</v>
       </c>
@@ -13692,9 +13332,6 @@
       <c r="B10" t="n">
         <v>3.85</v>
       </c>
-      <c r="C10" t="n">
-        <v>7.7</v>
-      </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
@@ -13711,9 +13348,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
@@ -13730,9 +13364,6 @@
       <c r="B12" t="n">
         <v>1.95</v>
       </c>
-      <c r="C12" t="n">
-        <v>3.9</v>
-      </c>
       <c r="D12" t="n">
         <v>1.4</v>
       </c>
@@ -13749,9 +13380,6 @@
       <c r="B13" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>10</v>
-      </c>
       <c r="D13" t="n">
         <v>5.7</v>
       </c>
@@ -13768,9 +13396,6 @@
       <c r="B14" t="n">
         <v>5.3</v>
       </c>
-      <c r="C14" t="n">
-        <v>5.3</v>
-      </c>
       <c r="D14" t="n">
         <v>5.3</v>
       </c>
@@ -13787,9 +13412,6 @@
       <c r="B15" t="n">
         <v>3.35</v>
       </c>
-      <c r="C15" t="n">
-        <v>6.7</v>
-      </c>
       <c r="D15" t="n">
         <v>4.7</v>
       </c>
@@ -13806,9 +13428,6 @@
       <c r="B16" t="n">
         <v>3.25</v>
       </c>
-      <c r="C16" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D16" t="n">
         <v>4.3</v>
       </c>
@@ -13825,9 +13444,6 @@
       <c r="B17" t="n">
         <v>5.85</v>
       </c>
-      <c r="C17" t="n">
-        <v>11.7</v>
-      </c>
       <c r="D17" t="n">
         <v>4.6</v>
       </c>
@@ -13844,9 +13460,6 @@
       <c r="B18" t="n">
         <v>4.2</v>
       </c>
-      <c r="C18" t="n">
-        <v>8.4</v>
-      </c>
       <c r="D18" t="n">
         <v>5.5</v>
       </c>
@@ -13863,9 +13476,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
@@ -13882,9 +13492,6 @@
       <c r="B20" t="n">
         <v>4.15</v>
       </c>
-      <c r="C20" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="D20" t="n">
         <v>5.1</v>
       </c>
@@ -13901,9 +13508,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
@@ -13920,9 +13524,6 @@
       <c r="B22" t="n">
         <v>5.25</v>
       </c>
-      <c r="C22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="D22" t="n">
         <v>2.3</v>
       </c>
@@ -13939,9 +13540,6 @@
       <c r="B23" t="n">
         <v>2.4</v>
       </c>
-      <c r="C23" t="n">
-        <v>2.4</v>
-      </c>
       <c r="D23" t="n">
         <v>2.4</v>
       </c>
@@ -13958,9 +13556,6 @@
       <c r="B24" t="n">
         <v>16.35</v>
       </c>
-      <c r="C24" t="n">
-        <v>32.7</v>
-      </c>
       <c r="D24" t="n">
         <v>17.9</v>
       </c>
@@ -13977,9 +13572,6 @@
       <c r="B25" t="n">
         <v>4.3</v>
       </c>
-      <c r="C25" t="n">
-        <v>8.6</v>
-      </c>
       <c r="D25" t="n">
         <v>4.6</v>
       </c>
@@ -13996,9 +13588,6 @@
       <c r="B26" t="n">
         <v>5.25</v>
       </c>
-      <c r="C26" t="n">
-        <v>10.5</v>
-      </c>
       <c r="D26" t="n">
         <v>5.8</v>
       </c>
@@ -14015,9 +13604,6 @@
       <c r="B27" t="n">
         <v>1.55</v>
       </c>
-      <c r="C27" t="n">
-        <v>3.1</v>
-      </c>
       <c r="D27" t="n">
         <v>1.7</v>
       </c>
@@ -14034,9 +13620,6 @@
       <c r="B28" t="n">
         <v>2.65</v>
       </c>
-      <c r="C28" t="n">
-        <v>5.3</v>
-      </c>
       <c r="D28" t="n">
         <v>3.4</v>
       </c>
@@ -14053,9 +13636,6 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
@@ -14072,9 +13652,6 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
@@ -14091,9 +13668,6 @@
       <c r="B31" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="C31" t="n">
-        <v>13.9</v>
-      </c>
       <c r="D31" t="n">
         <v>9.1</v>
       </c>
@@ -14110,9 +13684,6 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -14129,9 +13700,6 @@
       <c r="B33" t="n">
         <v>2.5</v>
       </c>
-      <c r="C33" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D33" t="n">
         <v>2.5</v>
       </c>
@@ -14148,9 +13716,6 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
@@ -14167,9 +13732,6 @@
       <c r="B35" t="n">
         <v>4.95</v>
       </c>
-      <c r="C35" t="n">
-        <v>9.9</v>
-      </c>
       <c r="D35" t="n">
         <v>3.9</v>
       </c>
@@ -14186,9 +13748,6 @@
       <c r="B36" t="n">
         <v>2.1</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.1</v>
-      </c>
       <c r="D36" t="n">
         <v>2.1</v>
       </c>
@@ -14205,9 +13764,6 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
@@ -14224,9 +13780,6 @@
       <c r="B38" t="n">
         <v>4.4</v>
       </c>
-      <c r="C38" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="D38" t="n">
         <v>1.5</v>
       </c>
@@ -14243,9 +13796,6 @@
       <c r="B39" t="n">
         <v>2.8</v>
       </c>
-      <c r="C39" t="n">
-        <v>2.8</v>
-      </c>
       <c r="D39" t="n">
         <v>2.8</v>
       </c>
@@ -14262,9 +13812,6 @@
       <c r="B40" t="n">
         <v>4.4</v>
       </c>
-      <c r="C40" t="n">
-        <v>4.4</v>
-      </c>
       <c r="D40" t="n">
         <v>4.4</v>
       </c>
@@ -14281,9 +13828,6 @@
       <c r="B41" t="n">
         <v>1.1</v>
       </c>
-      <c r="C41" t="n">
-        <v>2.2</v>
-      </c>
       <c r="D41" t="n">
         <v>1.4</v>
       </c>
@@ -14300,9 +13844,6 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
@@ -14319,9 +13860,6 @@
       <c r="B43" t="n">
         <v>6.5</v>
       </c>
-      <c r="C43" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
@@ -14338,9 +13876,6 @@
       <c r="B44" t="n">
         <v>3.05</v>
       </c>
-      <c r="C44" t="n">
-        <v>6.1</v>
-      </c>
       <c r="D44" t="n">
         <v>2.3</v>
       </c>
@@ -14357,9 +13892,6 @@
       <c r="B45" t="n">
         <v>1.45</v>
       </c>
-      <c r="C45" t="n">
-        <v>2.9</v>
-      </c>
       <c r="D45" t="n">
         <v>2.1</v>
       </c>
@@ -14376,9 +13908,6 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
@@ -14395,9 +13924,6 @@
       <c r="B47" t="n">
         <v>3.15</v>
       </c>
-      <c r="C47" t="n">
-        <v>6.300000000000001</v>
-      </c>
       <c r="D47" t="n">
         <v>3.6</v>
       </c>
@@ -14414,9 +13940,6 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
@@ -14433,9 +13956,6 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
@@ -14452,9 +13972,6 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
@@ -14471,9 +13988,6 @@
       <c r="B51" t="n">
         <v>2.7</v>
       </c>
-      <c r="C51" t="n">
-        <v>5.4</v>
-      </c>
       <c r="D51" t="n">
         <v>1.8</v>
       </c>
@@ -14490,9 +14004,6 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
@@ -14509,9 +14020,6 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
@@ -14528,9 +14036,6 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
@@ -14547,9 +14052,6 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
@@ -14566,9 +14068,6 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
@@ -14583,9 +14082,6 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C57" t="n">
         <v>2.4</v>
       </c>
       <c r="D57" t="n">
@@ -14650,9 +14146,6 @@
       <c r="B2" s="4" t="n">
         <v>0.001354166666666667</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>0.002708333333333333</v>
-      </c>
       <c r="D2" s="4" t="n">
         <v>0.001261574074074074</v>
       </c>
@@ -14669,9 +14162,6 @@
       <c r="B3" s="4" t="n">
         <v>0.001469907407407407</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.001469907407407407</v>
-      </c>
       <c r="D3" s="4" t="n">
         <v>0.001469907407407407</v>
       </c>
@@ -14688,9 +14178,6 @@
       <c r="B4" s="4" t="n">
         <v>0.00150462962962963</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.00150462962962963</v>
-      </c>
       <c r="D4" s="4" t="n">
         <v>0.00150462962962963</v>
       </c>
@@ -14707,9 +14194,6 @@
       <c r="B5" s="4" t="n">
         <v>0.001388888888888889</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.001388888888888889</v>
-      </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
@@ -14726,9 +14210,6 @@
       <c r="B6" s="4" t="n">
         <v>0.001313657407407407</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>0.002627314814814815</v>
-      </c>
       <c r="D6" s="4" t="n">
         <v>0.001226851851851852</v>
       </c>
@@ -14745,9 +14226,6 @@
       <c r="B7" s="4" t="n">
         <v>0.001168981481481481</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>0.002337962962962963</v>
-      </c>
       <c r="D7" s="4" t="n">
         <v>0.001122685185185185</v>
       </c>
@@ -14764,9 +14242,6 @@
       <c r="B8" s="4" t="n">
         <v>0.001261574074074074</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>0.002523148148148148</v>
-      </c>
       <c r="D8" s="4" t="n">
         <v>0.001226851851851852</v>
       </c>
@@ -14783,9 +14258,6 @@
       <c r="B9" s="4" t="n">
         <v>0.001481481481481481</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0.001481481481481481</v>
-      </c>
       <c r="D9" s="4" t="n">
         <v>0.001481481481481481</v>
       </c>
@@ -14802,9 +14274,6 @@
       <c r="B10" s="4" t="n">
         <v>0.001371527777777778</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>0.002743055555555556</v>
-      </c>
       <c r="D10" s="4" t="n">
         <v>0.00150462962962963</v>
       </c>
@@ -14821,9 +14290,6 @@
       <c r="B11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" s="4" t="n">
         <v>0</v>
       </c>
@@ -14840,9 +14306,6 @@
       <c r="B12" s="4" t="n">
         <v>0.001371527777777778</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>0.002743055555555555</v>
-      </c>
       <c r="D12" s="4" t="n">
         <v>0.001446759259259259</v>
       </c>
@@ -14859,9 +14322,6 @@
       <c r="B13" s="4" t="n">
         <v>0.001429398148148148</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>0.002858796296296296</v>
-      </c>
       <c r="D13" s="4" t="n">
         <v>0.001516203703703704</v>
       </c>
@@ -14878,9 +14338,6 @@
       <c r="B14" s="4" t="n">
         <v>0.001412037037037037</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>0.001412037037037037</v>
-      </c>
       <c r="D14" s="4" t="n">
         <v>0.001412037037037037</v>
       </c>
@@ -14897,9 +14354,6 @@
       <c r="B15" s="4" t="n">
         <v>0.001290509259259259</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>0.002581018518518519</v>
-      </c>
       <c r="D15" s="4" t="n">
         <v>0.001365740740740741</v>
       </c>
@@ -14916,9 +14370,6 @@
       <c r="B16" s="4" t="n">
         <v>0.001435185185185185</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>0.00287037037037037</v>
-      </c>
       <c r="D16" s="4" t="n">
         <v>0.001469907407407407</v>
       </c>
@@ -14935,9 +14386,6 @@
       <c r="B17" s="4" t="n">
         <v>0.001296296296296296</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>0.002592592592592593</v>
-      </c>
       <c r="D17" s="4" t="n">
         <v>0.00130787037037037</v>
       </c>
@@ -14954,9 +14402,6 @@
       <c r="B18" s="4" t="n">
         <v>0.001359953703703704</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v>0.002719907407407407</v>
-      </c>
       <c r="D18" s="4" t="n">
         <v>0.001238425925925926</v>
       </c>
@@ -14973,9 +14418,6 @@
       <c r="B19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D19" s="4" t="n">
         <v>0</v>
       </c>
@@ -14992,9 +14434,6 @@
       <c r="B20" s="4" t="n">
         <v>0.001458333333333333</v>
       </c>
-      <c r="C20" s="4" t="n">
-        <v>0.002916666666666667</v>
-      </c>
       <c r="D20" s="4" t="n">
         <v>0.001493055555555556</v>
       </c>
@@ -15011,9 +14450,6 @@
       <c r="B21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" s="4" t="n">
         <v>0</v>
       </c>
@@ -15030,9 +14466,6 @@
       <c r="B22" s="4" t="n">
         <v>0.001261574074074074</v>
       </c>
-      <c r="C22" s="4" t="n">
-        <v>0.002523148148148148</v>
-      </c>
       <c r="D22" s="4" t="n">
         <v>0.001238425925925926</v>
       </c>
@@ -15049,9 +14482,6 @@
       <c r="B23" s="4" t="n">
         <v>0.001319444444444444</v>
       </c>
-      <c r="C23" s="4" t="n">
-        <v>0.001319444444444444</v>
-      </c>
       <c r="D23" s="4" t="n">
         <v>0.001319444444444444</v>
       </c>
@@ -15068,9 +14498,6 @@
       <c r="B24" s="4" t="n">
         <v>0.001273148148148148</v>
       </c>
-      <c r="C24" s="4" t="n">
-        <v>0.002546296296296297</v>
-      </c>
       <c r="D24" s="4" t="n">
         <v>0.001238425925925926</v>
       </c>
@@ -15087,9 +14514,6 @@
       <c r="B25" s="4" t="n">
         <v>0.001365740740740741</v>
       </c>
-      <c r="C25" s="4" t="n">
-        <v>0.002731481481481481</v>
-      </c>
       <c r="D25" s="4" t="n">
         <v>0.001319444444444444</v>
       </c>
@@ -15106,9 +14530,6 @@
       <c r="B26" s="4" t="n">
         <v>0.001319444444444444</v>
       </c>
-      <c r="C26" s="4" t="n">
-        <v>0.002638888888888889</v>
-      </c>
       <c r="D26" s="4" t="n">
         <v>0.00130787037037037</v>
       </c>
@@ -15125,9 +14546,6 @@
       <c r="B27" s="4" t="n">
         <v>0.001417824074074074</v>
       </c>
-      <c r="C27" s="4" t="n">
-        <v>0.002835648148148148</v>
-      </c>
       <c r="D27" s="4" t="n">
         <v>0.001354166666666667</v>
       </c>
@@ -15144,9 +14562,6 @@
       <c r="B28" s="4" t="n">
         <v>0.001371527777777778</v>
       </c>
-      <c r="C28" s="4" t="n">
-        <v>0.002743055555555555</v>
-      </c>
       <c r="D28" s="4" t="n">
         <v>0.00130787037037037</v>
       </c>
@@ -15163,9 +14578,6 @@
       <c r="B29" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C29" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" s="4" t="n">
         <v>0</v>
       </c>
@@ -15182,9 +14594,6 @@
       <c r="B30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" s="4" t="n">
         <v>0</v>
       </c>
@@ -15201,9 +14610,6 @@
       <c r="B31" s="4" t="n">
         <v>0.001180555555555556</v>
       </c>
-      <c r="C31" s="4" t="n">
-        <v>0.002361111111111111</v>
-      </c>
       <c r="D31" s="4" t="n">
         <v>0.001145833333333333</v>
       </c>
@@ -15220,9 +14626,6 @@
       <c r="B32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" s="4" t="n">
         <v>0</v>
       </c>
@@ -15239,9 +14642,6 @@
       <c r="B33" s="4" t="n">
         <v>0.001377314814814815</v>
       </c>
-      <c r="C33" s="4" t="n">
-        <v>0.001377314814814815</v>
-      </c>
       <c r="D33" s="4" t="n">
         <v>0.001377314814814815</v>
       </c>
@@ -15258,9 +14658,6 @@
       <c r="B34" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C34" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D34" s="4" t="n">
         <v>0</v>
       </c>
@@ -15277,9 +14674,6 @@
       <c r="B35" s="4" t="n">
         <v>0.001365740740740741</v>
       </c>
-      <c r="C35" s="4" t="n">
-        <v>0.002731481481481481</v>
-      </c>
       <c r="D35" s="4" t="n">
         <v>0.001469907407407407</v>
       </c>
@@ -15296,9 +14690,6 @@
       <c r="B36" s="4" t="n">
         <v>0.001331018518518518</v>
       </c>
-      <c r="C36" s="4" t="n">
-        <v>0.001331018518518518</v>
-      </c>
       <c r="D36" s="4" t="n">
         <v>0.001331018518518518</v>
       </c>
@@ -15315,9 +14706,6 @@
       <c r="B37" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D37" s="4" t="n">
         <v>0</v>
       </c>
@@ -15334,9 +14722,6 @@
       <c r="B38" s="4" t="n">
         <v>0.001365740740740741</v>
       </c>
-      <c r="C38" s="4" t="n">
-        <v>0.002731481481481481</v>
-      </c>
       <c r="D38" s="4" t="n">
         <v>0.001435185185185185</v>
       </c>
@@ -15353,9 +14738,6 @@
       <c r="B39" s="4" t="n">
         <v>0.001111111111111111</v>
       </c>
-      <c r="C39" s="4" t="n">
-        <v>0.001111111111111111</v>
-      </c>
       <c r="D39" s="4" t="n">
         <v>0.001111111111111111</v>
       </c>
@@ -15372,9 +14754,6 @@
       <c r="B40" s="4" t="n">
         <v>0.001388888888888889</v>
       </c>
-      <c r="C40" s="4" t="n">
-        <v>0.001388888888888889</v>
-      </c>
       <c r="D40" s="4" t="n">
         <v>0.001388888888888889</v>
       </c>
@@ -15391,9 +14770,6 @@
       <c r="B41" s="4" t="n">
         <v>0.001325231481481481</v>
       </c>
-      <c r="C41" s="4" t="n">
-        <v>0.002650462962962963</v>
-      </c>
       <c r="D41" s="4" t="n">
         <v>0.001400462962962963</v>
       </c>
@@ -15410,9 +14786,6 @@
       <c r="B42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C42" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D42" s="4" t="n">
         <v>0</v>
       </c>
@@ -15429,9 +14802,6 @@
       <c r="B43" s="4" t="n">
         <v>0.001377314814814815</v>
       </c>
-      <c r="C43" s="4" t="n">
-        <v>0.001377314814814815</v>
-      </c>
       <c r="D43" s="4" t="n">
         <v>0</v>
       </c>
@@ -15448,9 +14818,6 @@
       <c r="B44" s="4" t="n">
         <v>0.001348379629629629</v>
       </c>
-      <c r="C44" s="4" t="n">
-        <v>0.002696759259259259</v>
-      </c>
       <c r="D44" s="4" t="n">
         <v>0.001215277777777778</v>
       </c>
@@ -15467,9 +14834,6 @@
       <c r="B45" s="4" t="n">
         <v>0.001354166666666667</v>
       </c>
-      <c r="C45" s="4" t="n">
-        <v>0.002708333333333333</v>
-      </c>
       <c r="D45" s="4" t="n">
         <v>0.001273148148148148</v>
       </c>
@@ -15486,9 +14850,6 @@
       <c r="B46" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C46" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D46" s="4" t="n">
         <v>0</v>
       </c>
@@ -15505,9 +14866,6 @@
       <c r="B47" s="4" t="n">
         <v>0.001325231481481481</v>
       </c>
-      <c r="C47" s="4" t="n">
-        <v>0.002650462962962963</v>
-      </c>
       <c r="D47" s="4" t="n">
         <v>0.00119212962962963</v>
       </c>
@@ -15524,9 +14882,6 @@
       <c r="B48" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C48" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D48" s="4" t="n">
         <v>0</v>
       </c>
@@ -15543,9 +14898,6 @@
       <c r="B49" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C49" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D49" s="4" t="n">
         <v>0</v>
       </c>
@@ -15562,9 +14914,6 @@
       <c r="B50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C50" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D50" s="4" t="n">
         <v>0</v>
       </c>
@@ -15581,9 +14930,6 @@
       <c r="B51" s="4" t="n">
         <v>0.001342592592592593</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>0.002685185185185185</v>
-      </c>
       <c r="D51" s="4" t="n">
         <v>0.001284722222222222</v>
       </c>
@@ -15600,9 +14946,6 @@
       <c r="B52" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C52" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D52" s="4" t="n">
         <v>0</v>
       </c>
@@ -15619,9 +14962,6 @@
       <c r="B53" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D53" s="4" t="n">
         <v>0</v>
       </c>
@@ -15638,9 +14978,6 @@
       <c r="B54" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C54" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D54" s="4" t="n">
         <v>0</v>
       </c>
@@ -15657,9 +14994,6 @@
       <c r="B55" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C55" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D55" s="4" t="n">
         <v>0</v>
       </c>
@@ -15676,9 +15010,6 @@
       <c r="B56" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C56" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D56" s="4" t="n">
         <v>0</v>
       </c>
@@ -15693,9 +15024,6 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0.001168981481481482</v>
-      </c>
-      <c r="C57" s="4" t="n">
         <v>0.001168981481481482</v>
       </c>
       <c r="D57" s="4" t="n">
@@ -15760,9 +15088,6 @@
       <c r="B2" t="n">
         <v>195.45</v>
       </c>
-      <c r="C2" t="n">
-        <v>390.9</v>
-      </c>
       <c r="D2" t="n">
         <v>282.3</v>
       </c>
@@ -15779,9 +15104,6 @@
       <c r="B3" t="n">
         <v>289.6</v>
       </c>
-      <c r="C3" t="n">
-        <v>289.6</v>
-      </c>
       <c r="D3" t="n">
         <v>289.6</v>
       </c>
@@ -15798,9 +15120,6 @@
       <c r="B4" t="n">
         <v>223.45</v>
       </c>
-      <c r="C4" t="n">
-        <v>446.9</v>
-      </c>
       <c r="D4" t="n">
         <v>336.5</v>
       </c>
@@ -15817,9 +15136,6 @@
       <c r="B5" t="n">
         <v>337.95</v>
       </c>
-      <c r="C5" t="n">
-        <v>675.9</v>
-      </c>
       <c r="D5" t="n">
         <v>309.7</v>
       </c>
@@ -15836,9 +15152,6 @@
       <c r="B6" t="n">
         <v>205.9</v>
       </c>
-      <c r="C6" t="n">
-        <v>411.8</v>
-      </c>
       <c r="D6" t="n">
         <v>202.1</v>
       </c>
@@ -15855,9 +15168,6 @@
       <c r="B7" t="n">
         <v>149.45</v>
       </c>
-      <c r="C7" t="n">
-        <v>298.9</v>
-      </c>
       <c r="D7" t="n">
         <v>152.1</v>
       </c>
@@ -15874,9 +15184,6 @@
       <c r="B8" t="n">
         <v>130.55</v>
       </c>
-      <c r="C8" t="n">
-        <v>261.1</v>
-      </c>
       <c r="D8" t="n">
         <v>122.4</v>
       </c>
@@ -15893,9 +15200,6 @@
       <c r="B9" t="n">
         <v>126.4</v>
       </c>
-      <c r="C9" t="n">
-        <v>252.8</v>
-      </c>
       <c r="D9" t="n">
         <v>107.2</v>
       </c>
@@ -15912,9 +15216,6 @@
       <c r="B10" t="n">
         <v>202.45</v>
       </c>
-      <c r="C10" t="n">
-        <v>404.9</v>
-      </c>
       <c r="D10" t="n">
         <v>197.3</v>
       </c>
@@ -15931,9 +15232,6 @@
       <c r="B11" t="n">
         <v>157.4</v>
       </c>
-      <c r="C11" t="n">
-        <v>314.8</v>
-      </c>
       <c r="D11" t="n">
         <v>200</v>
       </c>
@@ -15950,9 +15248,6 @@
       <c r="B12" t="n">
         <v>116.8</v>
       </c>
-      <c r="C12" t="n">
-        <v>233.6</v>
-      </c>
       <c r="D12" t="n">
         <v>106.8</v>
       </c>
@@ -15969,9 +15264,6 @@
       <c r="B13" t="n">
         <v>37.05</v>
       </c>
-      <c r="C13" t="n">
-        <v>74.09999999999999</v>
-      </c>
       <c r="D13" t="n">
         <v>38</v>
       </c>
@@ -15988,9 +15280,6 @@
       <c r="B14" t="n">
         <v>46.84999999999999</v>
       </c>
-      <c r="C14" t="n">
-        <v>93.69999999999999</v>
-      </c>
       <c r="D14" t="n">
         <v>63.8</v>
       </c>
@@ -16007,9 +15296,6 @@
       <c r="B15" t="n">
         <v>99.2</v>
       </c>
-      <c r="C15" t="n">
-        <v>198.4</v>
-      </c>
       <c r="D15" t="n">
         <v>134.3</v>
       </c>
@@ -16026,9 +15312,6 @@
       <c r="B16" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="C16" t="n">
-        <v>194.8</v>
-      </c>
       <c r="D16" t="n">
         <v>115.6</v>
       </c>
@@ -16045,9 +15328,6 @@
       <c r="B17" t="n">
         <v>90.2</v>
       </c>
-      <c r="C17" t="n">
-        <v>180.4</v>
-      </c>
       <c r="D17" t="n">
         <v>60.2</v>
       </c>
@@ -16064,9 +15344,6 @@
       <c r="B18" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="C18" t="n">
-        <v>172.8</v>
-      </c>
       <c r="D18" t="n">
         <v>75.7</v>
       </c>
@@ -16083,9 +15360,6 @@
       <c r="B19" t="n">
         <v>185.3</v>
       </c>
-      <c r="C19" t="n">
-        <v>370.6</v>
-      </c>
       <c r="D19" t="n">
         <v>179.6</v>
       </c>
@@ -16102,9 +15376,6 @@
       <c r="B20" t="n">
         <v>92.69999999999999</v>
       </c>
-      <c r="C20" t="n">
-        <v>185.4</v>
-      </c>
       <c r="D20" t="n">
         <v>62.8</v>
       </c>
@@ -16121,9 +15392,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
@@ -16140,9 +15408,6 @@
       <c r="B22" t="n">
         <v>84.3</v>
       </c>
-      <c r="C22" t="n">
-        <v>168.6</v>
-      </c>
       <c r="D22" t="n">
         <v>85.5</v>
       </c>
@@ -16159,9 +15424,6 @@
       <c r="B23" t="n">
         <v>76.84999999999999</v>
       </c>
-      <c r="C23" t="n">
-        <v>153.7</v>
-      </c>
       <c r="D23" t="n">
         <v>27.5</v>
       </c>
@@ -16178,9 +15440,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
@@ -16197,9 +15456,6 @@
       <c r="B25" t="n">
         <v>25.95</v>
       </c>
-      <c r="C25" t="n">
-        <v>51.9</v>
-      </c>
       <c r="D25" t="n">
         <v>31.9</v>
       </c>
@@ -16216,9 +15472,6 @@
       <c r="B26" t="n">
         <v>69.8</v>
       </c>
-      <c r="C26" t="n">
-        <v>139.6</v>
-      </c>
       <c r="D26" t="n">
         <v>81.8</v>
       </c>
@@ -16235,9 +15488,6 @@
       <c r="B27" t="n">
         <v>72.55</v>
       </c>
-      <c r="C27" t="n">
-        <v>145.1</v>
-      </c>
       <c r="D27" t="n">
         <v>71.8</v>
       </c>
@@ -16254,9 +15504,6 @@
       <c r="B28" t="n">
         <v>114.35</v>
       </c>
-      <c r="C28" t="n">
-        <v>228.7</v>
-      </c>
       <c r="D28" t="n">
         <v>105.8</v>
       </c>
@@ -16273,9 +15520,6 @@
       <c r="B29" t="n">
         <v>60.25</v>
       </c>
-      <c r="C29" t="n">
-        <v>120.5</v>
-      </c>
       <c r="D29" t="n">
         <v>30.3</v>
       </c>
@@ -16292,9 +15536,6 @@
       <c r="B30" t="n">
         <v>124.1</v>
       </c>
-      <c r="C30" t="n">
-        <v>124.1</v>
-      </c>
       <c r="D30" t="n">
         <v>124.1</v>
       </c>
@@ -16311,9 +15552,6 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
@@ -16330,9 +15568,6 @@
       <c r="B32" t="n">
         <v>27.7</v>
       </c>
-      <c r="C32" t="n">
-        <v>55.40000000000001</v>
-      </c>
       <c r="D32" t="n">
         <v>34.6</v>
       </c>
@@ -16349,9 +15584,6 @@
       <c r="B33" t="n">
         <v>21.9</v>
       </c>
-      <c r="C33" t="n">
-        <v>21.9</v>
-      </c>
       <c r="D33" t="n">
         <v>21.9</v>
       </c>
@@ -16368,9 +15600,6 @@
       <c r="B34" t="n">
         <v>65.75</v>
       </c>
-      <c r="C34" t="n">
-        <v>131.5</v>
-      </c>
       <c r="D34" t="n">
         <v>101.3</v>
       </c>
@@ -16387,9 +15616,6 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -16406,9 +15632,6 @@
       <c r="B36" t="n">
         <v>54.09999999999999</v>
       </c>
-      <c r="C36" t="n">
-        <v>108.2</v>
-      </c>
       <c r="D36" t="n">
         <v>31.1</v>
       </c>
@@ -16425,9 +15648,6 @@
       <c r="B37" t="n">
         <v>72.55</v>
       </c>
-      <c r="C37" t="n">
-        <v>145.1</v>
-      </c>
       <c r="D37" t="n">
         <v>58.9</v>
       </c>
@@ -16444,9 +15664,6 @@
       <c r="B38" t="n">
         <v>47.7</v>
       </c>
-      <c r="C38" t="n">
-        <v>95.40000000000001</v>
-      </c>
       <c r="D38" t="n">
         <v>29.5</v>
       </c>
@@ -16463,9 +15680,6 @@
       <c r="B39" t="n">
         <v>18</v>
       </c>
-      <c r="C39" t="n">
-        <v>18</v>
-      </c>
       <c r="D39" t="n">
         <v>18</v>
       </c>
@@ -16482,9 +15696,6 @@
       <c r="B40" t="n">
         <v>32</v>
       </c>
-      <c r="C40" t="n">
-        <v>32</v>
-      </c>
       <c r="D40" t="n">
         <v>32</v>
       </c>
@@ -16501,9 +15712,6 @@
       <c r="B41" t="n">
         <v>24.4</v>
       </c>
-      <c r="C41" t="n">
-        <v>24.4</v>
-      </c>
       <c r="D41" t="n">
         <v>24.4</v>
       </c>
@@ -16520,9 +15728,6 @@
       <c r="B42" t="n">
         <v>91.05000000000001</v>
       </c>
-      <c r="C42" t="n">
-        <v>182.1</v>
-      </c>
       <c r="D42" t="n">
         <v>72.7</v>
       </c>
@@ -16539,9 +15744,6 @@
       <c r="B43" t="n">
         <v>94.3</v>
       </c>
-      <c r="C43" t="n">
-        <v>188.6</v>
-      </c>
       <c r="D43" t="n">
         <v>63.8</v>
       </c>
@@ -16558,9 +15760,6 @@
       <c r="B44" t="n">
         <v>42.6</v>
       </c>
-      <c r="C44" t="n">
-        <v>42.6</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
@@ -16577,9 +15776,6 @@
       <c r="B45" t="n">
         <v>25.1</v>
       </c>
-      <c r="C45" t="n">
-        <v>25.1</v>
-      </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
@@ -16596,9 +15792,6 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
@@ -16615,9 +15808,6 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
@@ -16634,9 +15824,6 @@
       <c r="B48" t="n">
         <v>64.05</v>
       </c>
-      <c r="C48" t="n">
-        <v>128.1</v>
-      </c>
       <c r="D48" t="n">
         <v>33.1</v>
       </c>
@@ -16653,9 +15840,6 @@
       <c r="B49" t="n">
         <v>13.6</v>
       </c>
-      <c r="C49" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D49" t="n">
         <v>13.6</v>
       </c>
@@ -16672,9 +15856,6 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
@@ -16691,9 +15872,6 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
@@ -16710,9 +15888,6 @@
       <c r="B52" t="n">
         <v>28.4</v>
       </c>
-      <c r="C52" t="n">
-        <v>28.4</v>
-      </c>
       <c r="D52" t="n">
         <v>28.4</v>
       </c>
@@ -16729,9 +15904,6 @@
       <c r="B53" t="n">
         <v>28.65</v>
       </c>
-      <c r="C53" t="n">
-        <v>57.3</v>
-      </c>
       <c r="D53" t="n">
         <v>25.4</v>
       </c>
@@ -16748,9 +15920,6 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
@@ -16767,9 +15936,6 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
@@ -16786,9 +15952,6 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
@@ -16803,9 +15966,6 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
@@ -16870,9 +16030,6 @@
       <c r="B2" t="n">
         <v>2330</v>
       </c>
-      <c r="C2" t="n">
-        <v>4660</v>
-      </c>
       <c r="D2" t="n">
         <v>3704</v>
       </c>
@@ -16889,9 +16046,6 @@
       <c r="B3" t="n">
         <v>3753</v>
       </c>
-      <c r="C3" t="n">
-        <v>3753</v>
-      </c>
       <c r="D3" t="n">
         <v>3753</v>
       </c>
@@ -16908,9 +16062,6 @@
       <c r="B4" t="n">
         <v>1939</v>
       </c>
-      <c r="C4" t="n">
-        <v>3878</v>
-      </c>
       <c r="D4" t="n">
         <v>3192</v>
       </c>
@@ -16927,9 +16078,6 @@
       <c r="B5" t="n">
         <v>2863.5</v>
       </c>
-      <c r="C5" t="n">
-        <v>5727</v>
-      </c>
       <c r="D5" t="n">
         <v>3414</v>
       </c>
@@ -16946,9 +16094,6 @@
       <c r="B6" t="n">
         <v>1820.5</v>
       </c>
-      <c r="C6" t="n">
-        <v>3641</v>
-      </c>
       <c r="D6" t="n">
         <v>2262</v>
       </c>
@@ -16965,9 +16110,6 @@
       <c r="B7" t="n">
         <v>1375.5</v>
       </c>
-      <c r="C7" t="n">
-        <v>2751</v>
-      </c>
       <c r="D7" t="n">
         <v>1398</v>
       </c>
@@ -16984,9 +16126,6 @@
       <c r="B8" t="n">
         <v>1498.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>2997</v>
-      </c>
       <c r="D8" t="n">
         <v>1566</v>
       </c>
@@ -17003,9 +16142,6 @@
       <c r="B9" t="n">
         <v>1218</v>
       </c>
-      <c r="C9" t="n">
-        <v>2436</v>
-      </c>
       <c r="D9" t="n">
         <v>1355</v>
       </c>
@@ -17022,9 +16158,6 @@
       <c r="B10" t="n">
         <v>2450.5</v>
       </c>
-      <c r="C10" t="n">
-        <v>4901</v>
-      </c>
       <c r="D10" t="n">
         <v>2875</v>
       </c>
@@ -17041,9 +16174,6 @@
       <c r="B11" t="n">
         <v>1197.5</v>
       </c>
-      <c r="C11" t="n">
-        <v>2395</v>
-      </c>
       <c r="D11" t="n">
         <v>1663</v>
       </c>
@@ -17060,9 +16190,6 @@
       <c r="B12" t="n">
         <v>955</v>
       </c>
-      <c r="C12" t="n">
-        <v>1910</v>
-      </c>
       <c r="D12" t="n">
         <v>1064</v>
       </c>
@@ -17079,9 +16206,6 @@
       <c r="B13" t="n">
         <v>344</v>
       </c>
-      <c r="C13" t="n">
-        <v>688</v>
-      </c>
       <c r="D13" t="n">
         <v>357</v>
       </c>
@@ -17098,9 +16222,6 @@
       <c r="B14" t="n">
         <v>386.5</v>
       </c>
-      <c r="C14" t="n">
-        <v>773</v>
-      </c>
       <c r="D14" t="n">
         <v>544</v>
       </c>
@@ -17117,9 +16238,6 @@
       <c r="B15" t="n">
         <v>750.5</v>
       </c>
-      <c r="C15" t="n">
-        <v>1501</v>
-      </c>
       <c r="D15" t="n">
         <v>1134</v>
       </c>
@@ -17136,9 +16254,6 @@
       <c r="B16" t="n">
         <v>822.5</v>
       </c>
-      <c r="C16" t="n">
-        <v>1645</v>
-      </c>
       <c r="D16" t="n">
         <v>1021</v>
       </c>
@@ -17155,9 +16270,6 @@
       <c r="B17" t="n">
         <v>1036</v>
       </c>
-      <c r="C17" t="n">
-        <v>2072</v>
-      </c>
       <c r="D17" t="n">
         <v>662</v>
       </c>
@@ -17174,9 +16286,6 @@
       <c r="B18" t="n">
         <v>973.5</v>
       </c>
-      <c r="C18" t="n">
-        <v>1947</v>
-      </c>
       <c r="D18" t="n">
         <v>1086</v>
       </c>
@@ -17193,9 +16302,6 @@
       <c r="B19" t="n">
         <v>1714</v>
       </c>
-      <c r="C19" t="n">
-        <v>3428</v>
-      </c>
       <c r="D19" t="n">
         <v>1801</v>
       </c>
@@ -17212,9 +16318,6 @@
       <c r="B20" t="n">
         <v>830.5</v>
       </c>
-      <c r="C20" t="n">
-        <v>1661</v>
-      </c>
       <c r="D20" t="n">
         <v>781</v>
       </c>
@@ -17231,9 +16334,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
@@ -17250,9 +16350,6 @@
       <c r="B22" t="n">
         <v>880.5</v>
       </c>
-      <c r="C22" t="n">
-        <v>1761</v>
-      </c>
       <c r="D22" t="n">
         <v>820</v>
       </c>
@@ -17269,9 +16366,6 @@
       <c r="B23" t="n">
         <v>745.5</v>
       </c>
-      <c r="C23" t="n">
-        <v>1491</v>
-      </c>
       <c r="D23" t="n">
         <v>262</v>
       </c>
@@ -17288,9 +16382,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
@@ -17307,9 +16398,6 @@
       <c r="B25" t="n">
         <v>233</v>
       </c>
-      <c r="C25" t="n">
-        <v>466</v>
-      </c>
       <c r="D25" t="n">
         <v>337</v>
       </c>
@@ -17326,9 +16414,6 @@
       <c r="B26" t="n">
         <v>656.5</v>
       </c>
-      <c r="C26" t="n">
-        <v>1313</v>
-      </c>
       <c r="D26" t="n">
         <v>817</v>
       </c>
@@ -17345,9 +16430,6 @@
       <c r="B27" t="n">
         <v>672</v>
       </c>
-      <c r="C27" t="n">
-        <v>1344</v>
-      </c>
       <c r="D27" t="n">
         <v>600</v>
       </c>
@@ -17364,9 +16446,6 @@
       <c r="B28" t="n">
         <v>1075.5</v>
       </c>
-      <c r="C28" t="n">
-        <v>2151</v>
-      </c>
       <c r="D28" t="n">
         <v>1026</v>
       </c>
@@ -17383,9 +16462,6 @@
       <c r="B29" t="n">
         <v>508</v>
       </c>
-      <c r="C29" t="n">
-        <v>1016</v>
-      </c>
       <c r="D29" t="n">
         <v>293</v>
       </c>
@@ -17402,9 +16478,6 @@
       <c r="B30" t="n">
         <v>1458</v>
       </c>
-      <c r="C30" t="n">
-        <v>1458</v>
-      </c>
       <c r="D30" t="n">
         <v>1458</v>
       </c>
@@ -17421,9 +16494,6 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
@@ -17440,9 +16510,6 @@
       <c r="B32" t="n">
         <v>290.5</v>
       </c>
-      <c r="C32" t="n">
-        <v>581</v>
-      </c>
       <c r="D32" t="n">
         <v>419</v>
       </c>
@@ -17459,9 +16526,6 @@
       <c r="B33" t="n">
         <v>280</v>
       </c>
-      <c r="C33" t="n">
-        <v>280</v>
-      </c>
       <c r="D33" t="n">
         <v>280</v>
       </c>
@@ -17478,9 +16542,6 @@
       <c r="B34" t="n">
         <v>620.5</v>
       </c>
-      <c r="C34" t="n">
-        <v>1241</v>
-      </c>
       <c r="D34" t="n">
         <v>891</v>
       </c>
@@ -17497,9 +16558,6 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -17516,9 +16574,6 @@
       <c r="B36" t="n">
         <v>434.5</v>
       </c>
-      <c r="C36" t="n">
-        <v>869</v>
-      </c>
       <c r="D36" t="n">
         <v>301</v>
       </c>
@@ -17535,9 +16590,6 @@
       <c r="B37" t="n">
         <v>783.5</v>
       </c>
-      <c r="C37" t="n">
-        <v>1567</v>
-      </c>
       <c r="D37" t="n">
         <v>611</v>
       </c>
@@ -17554,9 +16606,6 @@
       <c r="B38" t="n">
         <v>388.5</v>
       </c>
-      <c r="C38" t="n">
-        <v>777</v>
-      </c>
       <c r="D38" t="n">
         <v>253</v>
       </c>
@@ -17573,9 +16622,6 @@
       <c r="B39" t="n">
         <v>228</v>
       </c>
-      <c r="C39" t="n">
-        <v>228</v>
-      </c>
       <c r="D39" t="n">
         <v>228</v>
       </c>
@@ -17592,9 +16638,6 @@
       <c r="B40" t="n">
         <v>306</v>
       </c>
-      <c r="C40" t="n">
-        <v>306</v>
-      </c>
       <c r="D40" t="n">
         <v>306</v>
       </c>
@@ -17611,9 +16654,6 @@
       <c r="B41" t="n">
         <v>251</v>
       </c>
-      <c r="C41" t="n">
-        <v>251</v>
-      </c>
       <c r="D41" t="n">
         <v>251</v>
       </c>
@@ -17630,9 +16670,6 @@
       <c r="B42" t="n">
         <v>1091</v>
       </c>
-      <c r="C42" t="n">
-        <v>2182</v>
-      </c>
       <c r="D42" t="n">
         <v>917</v>
       </c>
@@ -17649,9 +16686,6 @@
       <c r="B43" t="n">
         <v>909.5</v>
       </c>
-      <c r="C43" t="n">
-        <v>1819</v>
-      </c>
       <c r="D43" t="n">
         <v>552</v>
       </c>
@@ -17668,9 +16702,6 @@
       <c r="B44" t="n">
         <v>368</v>
       </c>
-      <c r="C44" t="n">
-        <v>368</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
@@ -17687,9 +16718,6 @@
       <c r="B45" t="n">
         <v>301</v>
       </c>
-      <c r="C45" t="n">
-        <v>301</v>
-      </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
@@ -17706,9 +16734,6 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
@@ -17725,9 +16750,6 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
@@ -17744,9 +16766,6 @@
       <c r="B48" t="n">
         <v>521.5</v>
       </c>
-      <c r="C48" t="n">
-        <v>1043</v>
-      </c>
       <c r="D48" t="n">
         <v>415</v>
       </c>
@@ -17763,9 +16782,6 @@
       <c r="B49" t="n">
         <v>198</v>
       </c>
-      <c r="C49" t="n">
-        <v>198</v>
-      </c>
       <c r="D49" t="n">
         <v>198</v>
       </c>
@@ -17782,9 +16798,6 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
@@ -17801,9 +16814,6 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
@@ -17820,9 +16830,6 @@
       <c r="B52" t="n">
         <v>286</v>
       </c>
-      <c r="C52" t="n">
-        <v>286</v>
-      </c>
       <c r="D52" t="n">
         <v>286</v>
       </c>
@@ -17839,9 +16846,6 @@
       <c r="B53" t="n">
         <v>201</v>
       </c>
-      <c r="C53" t="n">
-        <v>402</v>
-      </c>
       <c r="D53" t="n">
         <v>233</v>
       </c>
@@ -17858,9 +16862,6 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
@@ -17877,9 +16878,6 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
@@ -17896,9 +16894,6 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
@@ -17913,9 +16908,6 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
@@ -18012,7 +17004,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -18023,8 +17015,8 @@
       <c r="C2" s="4" t="n">
         <v>0.5075396825396826</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>3.552777777777778</v>
+      <c r="D2" t="n">
+        <v>0.9666666666666667</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0</v>
@@ -18055,7 +17047,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -18066,8 +17058,8 @@
       <c r="C3" s="4" t="n">
         <v>0.5440476190476191</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>3.808333333333334</v>
+      <c r="D3" t="n">
+        <v>1.043055555555556</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -18098,7 +17090,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -18109,8 +17101,8 @@
       <c r="C4" s="4" t="n">
         <v>0.2349826388888889</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>1.879861111111111</v>
+      <c r="D4" t="n">
+        <v>0.3326388888888889</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
@@ -18141,7 +17133,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -18152,8 +17144,8 @@
       <c r="C5" s="4" t="n">
         <v>0.4728298611111111</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>3.782638888888889</v>
+      <c r="D5" t="n">
+        <v>0.6111111111111112</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>0</v>
@@ -18184,7 +17176,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -18195,8 +17187,8 @@
       <c r="C6" s="4" t="n">
         <v>0.2364087301587302</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>1.654861111111111</v>
+      <c r="D6" t="n">
+        <v>0.8118055555555556</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0</v>
@@ -18227,7 +17219,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -18238,8 +17230,8 @@
       <c r="C7" s="4" t="n">
         <v>0.2953993055555555</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>2.363194444444444</v>
+      <c r="D7" t="n">
+        <v>0.5798611111111112</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
@@ -18270,7 +17262,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -18281,8 +17273,8 @@
       <c r="C8" s="4" t="n">
         <v>0.4105902777777778</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>3.284722222222222</v>
+      <c r="D8" t="n">
+        <v>0.7763888888888889</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -18313,7 +17305,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -18324,8 +17316,8 @@
       <c r="C9" s="4" t="n">
         <v>0.2518229166666667</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>2.014583333333333</v>
+      <c r="D9" t="n">
+        <v>0.6020833333333333</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
@@ -18356,7 +17348,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -18367,8 +17359,8 @@
       <c r="C10" s="4" t="n">
         <v>0.4302083333333334</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>3.441666666666667</v>
+      <c r="D10" t="n">
+        <v>0.8284722222222223</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -18399,7 +17391,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -18410,8 +17402,8 @@
       <c r="C11" s="4" t="n">
         <v>0.1262152777777778</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>0.5048611111111111</v>
+      <c r="D11" t="n">
+        <v>0.4451388888888889</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
@@ -18442,7 +17434,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -18453,8 +17445,8 @@
       <c r="C12" s="4" t="n">
         <v>0.3111111111111111</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>2.488888888888889</v>
+      <c r="D12" t="n">
+        <v>0.9590277777777778</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>0</v>
@@ -18485,7 +17477,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -18496,8 +17488,8 @@
       <c r="C13" s="4" t="n">
         <v>0.0849537037037037</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>0.5097222222222222</v>
+      <c r="D13" t="n">
+        <v>0.1548611111111111</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>0</v>
@@ -18528,7 +17520,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -18539,8 +17531,8 @@
       <c r="C14" s="4" t="n">
         <v>0.1458333333333333</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>1.166666666666667</v>
+      <c r="D14" t="n">
+        <v>0.4638888888888889</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0</v>
@@ -18571,7 +17563,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -18582,8 +17574,8 @@
       <c r="C15" s="4" t="n">
         <v>0.2071180555555555</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>1.656944444444444</v>
+      <c r="D15" t="n">
+        <v>0.2979166666666667</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0</v>
@@ -18614,7 +17606,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -18625,8 +17617,8 @@
       <c r="C16" s="4" t="n">
         <v>0.2884548611111111</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>2.307638888888889</v>
+      <c r="D16" t="n">
+        <v>0.6395833333333333</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
@@ -18657,7 +17649,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -18668,8 +17660,8 @@
       <c r="C17" s="4" t="n">
         <v>0.3665798611111111</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>2.932638888888889</v>
+      <c r="D17" t="n">
+        <v>0.9631944444444445</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
@@ -18700,7 +17692,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -18711,8 +17703,8 @@
       <c r="C18" s="4" t="n">
         <v>0.3824652777777778</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>1.529861111111111</v>
+      <c r="D18" t="n">
+        <v>0.7604166666666666</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
@@ -18743,7 +17735,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -18754,8 +17746,8 @@
       <c r="C19" s="4" t="n">
         <v>0.2430555555555556</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>1.944444444444444</v>
+      <c r="D19" t="n">
+        <v>0.2743055555555556</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -18786,7 +17778,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -18797,8 +17789,8 @@
       <c r="C20" s="4" t="n">
         <v>0.2302083333333333</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>1.841666666666667</v>
+      <c r="D20" t="n">
+        <v>0.3666666666666666</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -18829,7 +17821,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -18840,8 +17832,8 @@
       <c r="C21" s="4" t="n">
         <v>0.2060763888888889</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>1.648611111111111</v>
+      <c r="D21" t="n">
+        <v>0.4694444444444444</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -18872,7 +17864,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -18883,8 +17875,8 @@
       <c r="C22" s="4" t="n">
         <v>0.1665798611111111</v>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>1.332638888888889</v>
+      <c r="D22" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -18915,7 +17907,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -18926,8 +17918,8 @@
       <c r="C23" s="4" t="n">
         <v>0.4296875</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>3.4375</v>
+      <c r="D23" t="n">
+        <v>1.168055555555556</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -18958,7 +17950,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -18969,7 +17961,7 @@
       <c r="C24" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="4" t="n">
@@ -19001,7 +17993,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -19012,8 +18004,8 @@
       <c r="C25" s="4" t="n">
         <v>0.2614583333333333</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>2.091666666666667</v>
+      <c r="D25" t="n">
+        <v>0.3625</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -19044,7 +18036,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -19055,8 +18047,8 @@
       <c r="C26" s="4" t="n">
         <v>0.1146701388888889</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>0.9173611111111111</v>
+      <c r="D26" t="n">
+        <v>0.4069444444444444</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -19087,7 +18079,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -19098,8 +18090,8 @@
       <c r="C27" s="4" t="n">
         <v>0.3411458333333333</v>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>1.364583333333333</v>
+      <c r="D27" t="n">
+        <v>0.6347222222222222</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -19130,7 +18122,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -19141,8 +18133,8 @@
       <c r="C28" s="4" t="n">
         <v>0.1596230158730159</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>1.117361111111111</v>
+      <c r="D28" t="n">
+        <v>0.1784722222222222</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -19173,7 +18165,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -19184,8 +18176,8 @@
       <c r="C29" s="4" t="n">
         <v>0.1583333333333333</v>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>1.266666666666667</v>
+      <c r="D29" t="n">
+        <v>0.6076388888888888</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -19216,7 +18208,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -19227,8 +18219,8 @@
       <c r="C30" s="4" t="n">
         <v>0.1816840277777778</v>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>1.453472222222222</v>
+      <c r="D30" t="n">
+        <v>0.6236111111111111</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -19259,7 +18251,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -19270,8 +18262,8 @@
       <c r="C31" s="4" t="n">
         <v>0.07388888888888887</v>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>0.3694444444444444</v>
+      <c r="D31" t="n">
+        <v>0.04930555555555555</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -19302,7 +18294,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -19313,7 +18305,7 @@
       <c r="C32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="4" t="n">
@@ -19345,7 +18337,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -19356,8 +18348,8 @@
       <c r="C33" s="4" t="n">
         <v>0.04833333333333334</v>
       </c>
-      <c r="D33" s="4" t="n">
-        <v>0.2416666666666667</v>
+      <c r="D33" t="n">
+        <v>0.06388888888888888</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
@@ -19388,7 +18380,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -19399,8 +18391,8 @@
       <c r="C34" s="4" t="n">
         <v>0.04722222222222222</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>0.04722222222222222</v>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -19431,7 +18423,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -19442,8 +18434,8 @@
       <c r="C35" s="4" t="n">
         <v>0.06888888888888889</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>0.3444444444444444</v>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -19474,7 +18466,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -19485,8 +18477,8 @@
       <c r="C36" s="4" t="n">
         <v>0.1645833333333333</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>0.6583333333333332</v>
+      <c r="D36" t="n">
+        <v>0.2208333333333333</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -19517,7 +18509,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -19528,8 +18520,8 @@
       <c r="C37" s="4" t="n">
         <v>0.07132936507936508</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>0.4993055555555556</v>
+      <c r="D37" t="n">
+        <v>0.01875</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -19560,7 +18552,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -19571,8 +18563,8 @@
       <c r="C38" s="4" t="n">
         <v>0.1525793650793651</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>1.068055555555556</v>
+      <c r="D38" t="n">
+        <v>0.1291666666666667</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -19603,7 +18595,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -19614,7 +18606,7 @@
       <c r="C39" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="4" t="n">
@@ -19646,7 +18638,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -19657,7 +18649,7 @@
       <c r="C40" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="4" t="n">
@@ -19689,7 +18681,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -19700,8 +18692,8 @@
       <c r="C41" s="4" t="n">
         <v>0.06716269841269841</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>0.4701388888888889</v>
+      <c r="D41" t="n">
+        <v>0.1729166666666667</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -19732,7 +18724,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -19743,8 +18735,8 @@
       <c r="C42" s="4" t="n">
         <v>0.02708333333333333</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <v>0.1625</v>
+      <c r="D42" t="n">
+        <v>0.04930555555555555</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -19775,7 +18767,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -19786,7 +18778,7 @@
       <c r="C43" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="4" t="n">
@@ -19818,7 +18810,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -19829,8 +18821,8 @@
       <c r="C44" s="4" t="n">
         <v>0.3875</v>
       </c>
-      <c r="D44" s="4" t="n">
-        <v>2.7125</v>
+      <c r="D44" t="n">
+        <v>0.1756944444444444</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -19861,7 +18853,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -19872,8 +18864,8 @@
       <c r="C45" s="4" t="n">
         <v>0.03680555555555556</v>
       </c>
-      <c r="D45" s="4" t="n">
-        <v>0.1840277777777778</v>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -19904,7 +18896,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -19915,8 +18907,8 @@
       <c r="C46" s="4" t="n">
         <v>0.03388888888888889</v>
       </c>
-      <c r="D46" s="4" t="n">
-        <v>0.1694444444444444</v>
+      <c r="D46" t="n">
+        <v>0</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -19947,7 +18939,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -19958,8 +18950,8 @@
       <c r="C47" s="4" t="n">
         <v>0.08152777777777778</v>
       </c>
-      <c r="D47" s="4" t="n">
-        <v>0.4076388888888889</v>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -19990,7 +18982,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -20001,8 +18993,8 @@
       <c r="C48" s="4" t="n">
         <v>0.04348958333333333</v>
       </c>
-      <c r="D48" s="4" t="n">
-        <v>0.3479166666666667</v>
+      <c r="D48" t="n">
+        <v>0.04861111111111111</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -20033,7 +19025,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -20044,7 +19036,7 @@
       <c r="C49" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" s="4" t="n">
@@ -20076,7 +19068,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -20087,7 +19079,7 @@
       <c r="C50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" s="4" t="n">
@@ -20119,7 +19111,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -20130,8 +19122,8 @@
       <c r="C51" s="4" t="n">
         <v>0.03975694444444444</v>
       </c>
-      <c r="D51" s="4" t="n">
-        <v>0.1590277777777778</v>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -20162,7 +19154,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -20173,7 +19165,7 @@
       <c r="C52" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" s="4" t="n">
@@ -20205,7 +19197,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -20216,7 +19208,7 @@
       <c r="C53" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="4" t="n">
@@ -20248,7 +19240,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -20259,8 +19251,8 @@
       <c r="C54" s="4" t="n">
         <v>0.04930555555555555</v>
       </c>
-      <c r="D54" s="4" t="n">
-        <v>0.09861111111111111</v>
+      <c r="D54" t="n">
+        <v>0.08333333333333333</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>0</v>
@@ -20291,7 +19283,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -20302,7 +19294,7 @@
       <c r="C55" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" s="4" t="n">
@@ -20334,7 +19326,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -20345,7 +19337,7 @@
       <c r="C56" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="4" t="n">
@@ -20377,7 +19369,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -20388,7 +19380,7 @@
       <c r="C57" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" s="4" t="n">
@@ -20420,7 +19412,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -20431,7 +19423,7 @@
       <c r="C58" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" s="4" t="n">
@@ -20463,7 +19455,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -20474,7 +19466,7 @@
       <c r="C59" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="4" t="n">
@@ -20506,7 +19498,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -20517,8 +19509,8 @@
       <c r="C60" s="4" t="n">
         <v>0.1199652777777778</v>
       </c>
-      <c r="D60" s="4" t="n">
-        <v>0.9597222222222223</v>
+      <c r="D60" t="n">
+        <v>0.1118055555555556</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -20549,7 +19541,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="n">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -20560,8 +19552,8 @@
       <c r="C61" s="4" t="n">
         <v>0.1756944444444444</v>
       </c>
-      <c r="D61" s="4" t="n">
-        <v>0.3513888888888889</v>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -20592,7 +19584,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -20603,7 +19595,7 @@
       <c r="C62" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" s="4" t="n">
@@ -20635,7 +19627,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="n">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -20646,7 +19638,7 @@
       <c r="C63" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" s="4" t="n">
@@ -20678,7 +19670,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="n">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -20689,8 +19681,8 @@
       <c r="C64" s="4" t="n">
         <v>0.07708333333333332</v>
       </c>
-      <c r="D64" s="4" t="n">
-        <v>0.4625</v>
+      <c r="D64" t="n">
+        <v>0.02847222222222222</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>0</v>
@@ -20721,7 +19713,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="n">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -20732,8 +19724,8 @@
       <c r="C65" s="4" t="n">
         <v>0.3394444444444444</v>
       </c>
-      <c r="D65" s="4" t="n">
-        <v>1.697222222222222</v>
+      <c r="D65" t="n">
+        <v>0.55625</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -20764,7 +19756,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="n">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -20775,8 +19767,8 @@
       <c r="C66" s="4" t="n">
         <v>0.06588541666666667</v>
       </c>
-      <c r="D66" s="4" t="n">
-        <v>0.5270833333333333</v>
+      <c r="D66" t="n">
+        <v>0.1506944444444444</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -20807,7 +19799,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -20818,8 +19810,8 @@
       <c r="C67" s="4" t="n">
         <v>0.2104166666666666</v>
       </c>
-      <c r="D67" s="4" t="n">
-        <v>1.683333333333333</v>
+      <c r="D67" t="n">
+        <v>0.5201388888888889</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
@@ -20850,7 +19842,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="n">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -20861,8 +19853,8 @@
       <c r="C68" s="4" t="n">
         <v>0.02013888888888889</v>
       </c>
-      <c r="D68" s="4" t="n">
-        <v>0.04027777777777777</v>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -20893,7 +19885,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="n">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -20904,8 +19896,8 @@
       <c r="C69" s="4" t="n">
         <v>0.1364583333333333</v>
       </c>
-      <c r="D69" s="4" t="n">
-        <v>1.091666666666667</v>
+      <c r="D69" t="n">
+        <v>0.1576388888888889</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>0</v>
@@ -20936,7 +19928,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="n">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -20947,8 +19939,8 @@
       <c r="C70" s="4" t="n">
         <v>0.2894444444444444</v>
       </c>
-      <c r="D70" s="4" t="n">
-        <v>1.447222222222222</v>
+      <c r="D70" t="n">
+        <v>0</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>0</v>
@@ -20979,7 +19971,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="n">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -20990,8 +19982,8 @@
       <c r="C71" s="4" t="n">
         <v>0.1661458333333333</v>
       </c>
-      <c r="D71" s="4" t="n">
-        <v>1.329166666666667</v>
+      <c r="D71" t="n">
+        <v>0.36875</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -21022,7 +20014,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="n">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -21033,8 +20025,8 @@
       <c r="C72" s="4" t="n">
         <v>0.1963541666666667</v>
       </c>
-      <c r="D72" s="4" t="n">
-        <v>1.570833333333333</v>
+      <c r="D72" t="n">
+        <v>0.43125</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>0</v>
@@ -21065,7 +20057,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="n">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -21076,8 +20068,8 @@
       <c r="C73" s="4" t="n">
         <v>0.1014756944444444</v>
       </c>
-      <c r="D73" s="4" t="n">
-        <v>0.8118055555555554</v>
+      <c r="D73" t="n">
+        <v>0.1159722222222222</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -21108,7 +20100,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="n">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -21119,8 +20111,8 @@
       <c r="C74" s="4" t="n">
         <v>0.05815972222222222</v>
       </c>
-      <c r="D74" s="4" t="n">
-        <v>0.4652777777777778</v>
+      <c r="D74" t="n">
+        <v>0.05763888888888889</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -21151,7 +20143,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="n">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -21162,8 +20154,8 @@
       <c r="C75" s="4" t="n">
         <v>0.1222222222222222</v>
       </c>
-      <c r="D75" s="4" t="n">
-        <v>0.7333333333333334</v>
+      <c r="D75" t="n">
+        <v>0.2201388888888889</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
@@ -21194,7 +20186,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="n">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -21205,8 +20197,8 @@
       <c r="C76" s="4" t="n">
         <v>0.2628472222222222</v>
       </c>
-      <c r="D76" s="4" t="n">
-        <v>2.102777777777778</v>
+      <c r="D76" t="n">
+        <v>0.5</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -21245,8 +20237,8 @@
       <c r="C77" s="4" t="n">
         <v>0.3302579365079365</v>
       </c>
-      <c r="D77" s="4" t="n">
-        <v>2.311805555555555</v>
+      <c r="D77" t="n">
+        <v>0.7451388888888889</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>0</v>
@@ -21285,8 +20277,8 @@
       <c r="C78" s="4" t="n">
         <v>0.32890625</v>
       </c>
-      <c r="D78" s="4" t="n">
-        <v>2.63125</v>
+      <c r="D78" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>0</v>
@@ -21325,8 +20317,8 @@
       <c r="C79" s="4" t="n">
         <v>0.4017857142857143</v>
       </c>
-      <c r="D79" s="4" t="n">
-        <v>2.8125</v>
+      <c r="D79" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>0</v>
@@ -21365,8 +20357,8 @@
       <c r="C80" s="4" t="n">
         <v>0.1717013888888889</v>
       </c>
-      <c r="D80" s="4" t="n">
-        <v>0.6868055555555556</v>
+      <c r="D80" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -21405,8 +20397,8 @@
       <c r="C81" s="4" t="n">
         <v>0.154563492063492</v>
       </c>
-      <c r="D81" s="4" t="n">
-        <v>1.081944444444444</v>
+      <c r="D81" t="n">
+        <v>0.1493055555555556</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
@@ -21445,8 +20437,8 @@
       <c r="C82" s="4" t="n">
         <v>0.2074074074074074</v>
       </c>
-      <c r="D82" s="4" t="n">
-        <v>1.244444444444444</v>
+      <c r="D82" t="n">
+        <v>0.1354166666666667</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -21485,8 +20477,8 @@
       <c r="C83" s="4" t="n">
         <v>0.165625</v>
       </c>
-      <c r="D83" s="4" t="n">
-        <v>0.33125</v>
+      <c r="D83" t="n">
+        <v>0.1270833333333333</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -21525,8 +20517,8 @@
       <c r="C84" s="4" t="n">
         <v>0.278968253968254</v>
       </c>
-      <c r="D84" s="4" t="n">
-        <v>1.952777777777778</v>
+      <c r="D84" t="n">
+        <v>0.03055555555555555</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -21565,8 +20557,8 @@
       <c r="C85" s="4" t="n">
         <v>0.3497222222222222</v>
       </c>
-      <c r="D85" s="4" t="n">
-        <v>1.748611111111111</v>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>0</v>
@@ -21605,9 +20597,6 @@
       <c r="C86" s="4" t="n">
         <v>0.5170138888888889</v>
       </c>
-      <c r="D86" s="4" t="n">
-        <v>1.034027777777778</v>
-      </c>
       <c r="E86" s="4" t="n">
         <v>0</v>
       </c>
@@ -21645,9 +20634,6 @@
       <c r="C87" s="4" t="n">
         <v>0.3302083333333333</v>
       </c>
-      <c r="D87" s="4" t="n">
-        <v>0.6604166666666667</v>
-      </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
       </c>
@@ -21684,9 +20670,6 @@
       </c>
       <c r="C88" s="4" t="n">
         <v>0.3052083333333333</v>
-      </c>
-      <c r="D88" s="4" t="n">
-        <v>0.6104166666666666</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>0</v>
@@ -21771,9 +20754,6 @@
       <c r="B2" t="n">
         <v>50.1</v>
       </c>
-      <c r="C2" t="n">
-        <v>100.2</v>
-      </c>
       <c r="D2" t="n">
         <v>54.5</v>
       </c>
@@ -21790,9 +20770,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -21809,9 +20786,6 @@
       <c r="B4" t="n">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
       <c r="D4" t="n">
         <v>23</v>
       </c>
@@ -21828,9 +20802,6 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
       <c r="D5" t="n">
         <v>5.4</v>
       </c>
@@ -21847,9 +20818,6 @@
       <c r="B6" t="n">
         <v>9.65</v>
       </c>
-      <c r="C6" t="n">
-        <v>19.3</v>
-      </c>
       <c r="D6" t="n">
         <v>7.7</v>
       </c>
@@ -21866,9 +20834,6 @@
       <c r="B7" t="n">
         <v>35.8</v>
       </c>
-      <c r="C7" t="n">
-        <v>71.59999999999999</v>
-      </c>
       <c r="D7" t="n">
         <v>31.2</v>
       </c>
@@ -21885,9 +20850,6 @@
       <c r="B8" t="n">
         <v>38.15</v>
       </c>
-      <c r="C8" t="n">
-        <v>76.3</v>
-      </c>
       <c r="D8" t="n">
         <v>34.8</v>
       </c>
@@ -21904,9 +20866,6 @@
       <c r="B9" t="n">
         <v>34.7</v>
       </c>
-      <c r="C9" t="n">
-        <v>69.40000000000001</v>
-      </c>
       <c r="D9" t="n">
         <v>42.2</v>
       </c>
@@ -21923,9 +20882,6 @@
       <c r="B10" t="n">
         <v>27.35</v>
       </c>
-      <c r="C10" t="n">
-        <v>54.7</v>
-      </c>
       <c r="D10" t="n">
         <v>21.5</v>
       </c>
@@ -21942,9 +20898,6 @@
       <c r="B11" t="n">
         <v>14.8</v>
       </c>
-      <c r="C11" t="n">
-        <v>29.6</v>
-      </c>
       <c r="D11" t="n">
         <v>14.8</v>
       </c>
@@ -21961,9 +20914,6 @@
       <c r="B12" t="n">
         <v>51</v>
       </c>
-      <c r="C12" t="n">
-        <v>102</v>
-      </c>
       <c r="D12" t="n">
         <v>52.2</v>
       </c>
@@ -21980,9 +20930,6 @@
       <c r="B13" t="n">
         <v>57.65000000000001</v>
       </c>
-      <c r="C13" t="n">
-        <v>115.3</v>
-      </c>
       <c r="D13" t="n">
         <v>63.7</v>
       </c>
@@ -21999,9 +20946,6 @@
       <c r="B14" t="n">
         <v>50.40000000000001</v>
       </c>
-      <c r="C14" t="n">
-        <v>100.8</v>
-      </c>
       <c r="D14" t="n">
         <v>49.6</v>
       </c>
@@ -22018,9 +20962,6 @@
       <c r="B15" t="n">
         <v>17.2</v>
       </c>
-      <c r="C15" t="n">
-        <v>17.2</v>
-      </c>
       <c r="D15" t="n">
         <v>17.2</v>
       </c>
@@ -22037,9 +20978,6 @@
       <c r="B16" t="n">
         <v>15.1</v>
       </c>
-      <c r="C16" t="n">
-        <v>30.2</v>
-      </c>
       <c r="D16" t="n">
         <v>18.6</v>
       </c>
@@ -22056,9 +20994,6 @@
       <c r="B17" t="n">
         <v>44.9</v>
       </c>
-      <c r="C17" t="n">
-        <v>89.8</v>
-      </c>
       <c r="D17" t="n">
         <v>46.3</v>
       </c>
@@ -22075,9 +21010,6 @@
       <c r="B18" t="n">
         <v>31.3</v>
       </c>
-      <c r="C18" t="n">
-        <v>62.6</v>
-      </c>
       <c r="D18" t="n">
         <v>32.6</v>
       </c>
@@ -22094,9 +21026,6 @@
       <c r="B19" t="n">
         <v>5.1</v>
       </c>
-      <c r="C19" t="n">
-        <v>5.1</v>
-      </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
@@ -22113,9 +21042,6 @@
       <c r="B20" t="n">
         <v>24.35</v>
       </c>
-      <c r="C20" t="n">
-        <v>48.7</v>
-      </c>
       <c r="D20" t="n">
         <v>31</v>
       </c>
@@ -22132,9 +21058,6 @@
       <c r="B21" t="n">
         <v>67.8</v>
       </c>
-      <c r="C21" t="n">
-        <v>135.6</v>
-      </c>
       <c r="D21" t="n">
         <v>74.2</v>
       </c>
@@ -22151,9 +21074,6 @@
       <c r="B22" t="n">
         <v>18.85</v>
       </c>
-      <c r="C22" t="n">
-        <v>37.7</v>
-      </c>
       <c r="D22" t="n">
         <v>21.7</v>
       </c>
@@ -22170,9 +21090,6 @@
       <c r="B23" t="n">
         <v>43.75</v>
       </c>
-      <c r="C23" t="n">
-        <v>87.5</v>
-      </c>
       <c r="D23" t="n">
         <v>52.4</v>
       </c>
@@ -22189,9 +21106,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
@@ -22208,9 +21122,6 @@
       <c r="B25" t="n">
         <v>20.1</v>
       </c>
-      <c r="C25" t="n">
-        <v>40.2</v>
-      </c>
       <c r="D25" t="n">
         <v>23.8</v>
       </c>
@@ -22227,9 +21138,6 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -22246,9 +21154,6 @@
       <c r="B27" t="n">
         <v>13.8</v>
       </c>
-      <c r="C27" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D27" t="n">
         <v>16.2</v>
       </c>
@@ -22265,9 +21170,6 @@
       <c r="B28" t="n">
         <v>11.2</v>
       </c>
-      <c r="C28" t="n">
-        <v>11.2</v>
-      </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
@@ -22284,9 +21186,6 @@
       <c r="B29" t="n">
         <v>35.25</v>
       </c>
-      <c r="C29" t="n">
-        <v>70.5</v>
-      </c>
       <c r="D29" t="n">
         <v>35</v>
       </c>
@@ -22303,9 +21202,6 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
@@ -22322,9 +21218,6 @@
       <c r="B31" t="n">
         <v>13.6</v>
       </c>
-      <c r="C31" t="n">
-        <v>27.2</v>
-      </c>
       <c r="D31" t="n">
         <v>17.4</v>
       </c>
@@ -22341,9 +21234,6 @@
       <c r="B32" t="n">
         <v>30.95</v>
       </c>
-      <c r="C32" t="n">
-        <v>61.90000000000001</v>
-      </c>
       <c r="D32" t="n">
         <v>35.1</v>
       </c>
@@ -22360,9 +21250,6 @@
       <c r="B33" t="n">
         <v>30.85</v>
       </c>
-      <c r="C33" t="n">
-        <v>61.7</v>
-      </c>
       <c r="D33" t="n">
         <v>24.8</v>
       </c>
@@ -22379,9 +21266,6 @@
       <c r="B34" t="n">
         <v>3.6</v>
       </c>
-      <c r="C34" t="n">
-        <v>3.6</v>
-      </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
@@ -22398,9 +21282,6 @@
       <c r="B35" t="n">
         <v>25.85</v>
       </c>
-      <c r="C35" t="n">
-        <v>51.7</v>
-      </c>
       <c r="D35" t="n">
         <v>28</v>
       </c>
@@ -22417,9 +21298,6 @@
       <c r="B36" t="n">
         <v>16.65</v>
       </c>
-      <c r="C36" t="n">
-        <v>33.3</v>
-      </c>
       <c r="D36" t="n">
         <v>21.8</v>
       </c>
@@ -22436,9 +21314,6 @@
       <c r="B37" t="n">
         <v>20.6</v>
       </c>
-      <c r="C37" t="n">
-        <v>41.2</v>
-      </c>
       <c r="D37" t="n">
         <v>15.2</v>
       </c>
@@ -22455,9 +21330,6 @@
       <c r="B38" t="n">
         <v>22</v>
       </c>
-      <c r="C38" t="n">
-        <v>44</v>
-      </c>
       <c r="D38" t="n">
         <v>22.6</v>
       </c>
@@ -22474,9 +21346,6 @@
       <c r="B39" t="n">
         <v>15.5</v>
       </c>
-      <c r="C39" t="n">
-        <v>15.5</v>
-      </c>
       <c r="D39" t="n">
         <v>15.5</v>
       </c>
@@ -22493,9 +21362,6 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
@@ -22512,9 +21378,6 @@
       <c r="B41" t="n">
         <v>8</v>
       </c>
-      <c r="C41" t="n">
-        <v>16</v>
-      </c>
       <c r="D41" t="n">
         <v>10.3</v>
       </c>
@@ -22531,9 +21394,6 @@
       <c r="B42" t="n">
         <v>4.4</v>
       </c>
-      <c r="C42" t="n">
-        <v>4.4</v>
-      </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
@@ -22550,9 +21410,6 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
@@ -22569,9 +21426,6 @@
       <c r="B44" t="n">
         <v>13.55</v>
       </c>
-      <c r="C44" t="n">
-        <v>27.1</v>
-      </c>
       <c r="D44" t="n">
         <v>18.9</v>
       </c>
@@ -22588,9 +21442,6 @@
       <c r="B45" t="n">
         <v>11.3</v>
       </c>
-      <c r="C45" t="n">
-        <v>22.6</v>
-      </c>
       <c r="D45" t="n">
         <v>12.8</v>
       </c>
@@ -22607,9 +21458,6 @@
       <c r="B46" t="n">
         <v>23.1</v>
       </c>
-      <c r="C46" t="n">
-        <v>46.2</v>
-      </c>
       <c r="D46" t="n">
         <v>19</v>
       </c>
@@ -22626,9 +21474,6 @@
       <c r="B47" t="n">
         <v>5.2</v>
       </c>
-      <c r="C47" t="n">
-        <v>5.2</v>
-      </c>
       <c r="D47" t="n">
         <v>5.2</v>
       </c>
@@ -22645,9 +21490,6 @@
       <c r="B48" t="n">
         <v>5.2</v>
       </c>
-      <c r="C48" t="n">
-        <v>5.2</v>
-      </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
@@ -22664,9 +21506,6 @@
       <c r="B49" t="n">
         <v>6.85</v>
       </c>
-      <c r="C49" t="n">
-        <v>13.7</v>
-      </c>
       <c r="D49" t="n">
         <v>7.6</v>
       </c>
@@ -22683,9 +21522,6 @@
       <c r="B50" t="n">
         <v>24.2</v>
       </c>
-      <c r="C50" t="n">
-        <v>48.40000000000001</v>
-      </c>
       <c r="D50" t="n">
         <v>15.7</v>
       </c>
@@ -22702,9 +21538,6 @@
       <c r="B51" t="n">
         <v>5.7</v>
       </c>
-      <c r="C51" t="n">
-        <v>5.7</v>
-      </c>
       <c r="D51" t="n">
         <v>5.7</v>
       </c>
@@ -22721,9 +21554,6 @@
       <c r="B52" t="n">
         <v>2</v>
       </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
@@ -22740,9 +21570,6 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
@@ -22759,9 +21586,6 @@
       <c r="B54" t="n">
         <v>13.9</v>
       </c>
-      <c r="C54" t="n">
-        <v>27.8</v>
-      </c>
       <c r="D54" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -22778,9 +21602,6 @@
       <c r="B55" t="n">
         <v>15.2</v>
       </c>
-      <c r="C55" t="n">
-        <v>30.4</v>
-      </c>
       <c r="D55" t="n">
         <v>8.699999999999999</v>
       </c>
@@ -22797,9 +21618,6 @@
       <c r="B56" t="n">
         <v>7.7</v>
       </c>
-      <c r="C56" t="n">
-        <v>7.7</v>
-      </c>
       <c r="D56" t="n">
         <v>7.7</v>
       </c>
@@ -22814,9 +21632,6 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
@@ -22881,9 +21696,6 @@
       <c r="B2" s="4" t="n">
         <v>0.003402777777777778</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>0.006805555555555556</v>
-      </c>
       <c r="D2" s="4" t="n">
         <v>0.003287037037037037</v>
       </c>
@@ -22900,9 +21712,6 @@
       <c r="B3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
@@ -22919,9 +21728,6 @@
       <c r="B4" s="4" t="n">
         <v>0.003310185185185185</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.003310185185185185</v>
-      </c>
       <c r="D4" s="4" t="n">
         <v>0.003310185185185185</v>
       </c>
@@ -22938,9 +21744,6 @@
       <c r="B5" s="4" t="n">
         <v>0.003460648148148148</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.006921296296296296</v>
-      </c>
       <c r="D5" s="4" t="n">
         <v>0.003761574074074074</v>
       </c>
@@ -22957,9 +21760,6 @@
       <c r="B6" s="4" t="n">
         <v>0.003570601851851852</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>0.007141203703703703</v>
-      </c>
       <c r="D6" s="4" t="n">
         <v>0.003321759259259259</v>
       </c>
@@ -22976,9 +21776,6 @@
       <c r="B7" s="4" t="n">
         <v>0.004114583333333333</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>0.008229166666666666</v>
-      </c>
       <c r="D7" s="4" t="n">
         <v>0.004108796296296296</v>
       </c>
@@ -22995,9 +21792,6 @@
       <c r="B8" s="4" t="n">
         <v>0.003396990740740741</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>0.006793981481481482</v>
-      </c>
       <c r="D8" s="4" t="n">
         <v>0.003240740740740741</v>
       </c>
@@ -23014,9 +21808,6 @@
       <c r="B9" s="4" t="n">
         <v>0.00355324074074074</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0.007106481481481481</v>
-      </c>
       <c r="D9" s="4" t="n">
         <v>0.003657407407407407</v>
       </c>
@@ -23033,9 +21824,6 @@
       <c r="B10" s="4" t="n">
         <v>0.003674768518518518</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>0.007349537037037036</v>
-      </c>
       <c r="D10" s="4" t="n">
         <v>0.003738425925925926</v>
       </c>
@@ -23052,9 +21840,6 @@
       <c r="B11" s="4" t="n">
         <v>0.003634259259259259</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>0.007268518518518518</v>
-      </c>
       <c r="D11" s="4" t="n">
         <v>0.003518518518518518</v>
       </c>
@@ -23071,9 +21856,6 @@
       <c r="B12" s="4" t="n">
         <v>0.003420138888888889</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>0.006840277777777778</v>
-      </c>
       <c r="D12" s="4" t="n">
         <v>0.003263888888888889</v>
       </c>
@@ -23090,9 +21872,6 @@
       <c r="B13" s="4" t="n">
         <v>0.003559027777777778</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>0.007118055555555555</v>
-      </c>
       <c r="D13" s="4" t="n">
         <v>0.003125</v>
       </c>
@@ -23109,9 +21888,6 @@
       <c r="B14" s="4" t="n">
         <v>0.003715277777777777</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>0.007430555555555555</v>
-      </c>
       <c r="D14" s="4" t="n">
         <v>0.00349537037037037</v>
       </c>
@@ -23128,9 +21904,6 @@
       <c r="B15" s="4" t="n">
         <v>0.003460648148148148</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>0.003460648148148148</v>
-      </c>
       <c r="D15" s="4" t="n">
         <v>0.003460648148148148</v>
       </c>
@@ -23147,9 +21920,6 @@
       <c r="B16" s="4" t="n">
         <v>0.003917824074074074</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>0.007835648148148147</v>
-      </c>
       <c r="D16" s="4" t="n">
         <v>0.003912037037037037</v>
       </c>
@@ -23166,9 +21936,6 @@
       <c r="B17" s="4" t="n">
         <v>0.003304398148148148</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>0.006608796296296297</v>
-      </c>
       <c r="D17" s="4" t="n">
         <v>0.003229166666666667</v>
       </c>
@@ -23185,9 +21952,6 @@
       <c r="B18" s="4" t="n">
         <v>0.003605324074074074</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v>0.007210648148148148</v>
-      </c>
       <c r="D18" s="4" t="n">
         <v>0.003541666666666666</v>
       </c>
@@ -23204,9 +21968,6 @@
       <c r="B19" s="4" t="n">
         <v>0.004050925925925926</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <v>0.004050925925925926</v>
-      </c>
       <c r="D19" s="4" t="n">
         <v>0</v>
       </c>
@@ -23223,9 +21984,6 @@
       <c r="B20" s="4" t="n">
         <v>0.003802083333333334</v>
       </c>
-      <c r="C20" s="4" t="n">
-        <v>0.007604166666666667</v>
-      </c>
       <c r="D20" s="4" t="n">
         <v>0.003958333333333334</v>
       </c>
@@ -23242,9 +22000,6 @@
       <c r="B21" s="4" t="n">
         <v>0.003784722222222222</v>
       </c>
-      <c r="C21" s="4" t="n">
-        <v>0.007569444444444445</v>
-      </c>
       <c r="D21" s="4" t="n">
         <v>0.003680555555555555</v>
       </c>
@@ -23261,9 +22016,6 @@
       <c r="B22" s="4" t="n">
         <v>0.003998842592592592</v>
       </c>
-      <c r="C22" s="4" t="n">
-        <v>0.007997685185185184</v>
-      </c>
       <c r="D22" s="4" t="n">
         <v>0.003969907407407407</v>
       </c>
@@ -23280,9 +22032,6 @@
       <c r="B23" s="4" t="n">
         <v>0.003206018518518519</v>
       </c>
-      <c r="C23" s="4" t="n">
-        <v>0.006412037037037037</v>
-      </c>
       <c r="D23" s="4" t="n">
         <v>0.003240740740740741</v>
       </c>
@@ -23299,9 +22048,6 @@
       <c r="B24" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D24" s="4" t="n">
         <v>0</v>
       </c>
@@ -23318,9 +22064,6 @@
       <c r="B25" s="4" t="n">
         <v>0.003802083333333333</v>
       </c>
-      <c r="C25" s="4" t="n">
-        <v>0.007604166666666666</v>
-      </c>
       <c r="D25" s="4" t="n">
         <v>0.004131944444444444</v>
       </c>
@@ -23337,9 +22080,6 @@
       <c r="B26" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" s="4" t="n">
         <v>0</v>
       </c>
@@ -23356,9 +22096,6 @@
       <c r="B27" s="4" t="n">
         <v>0.004033564814814814</v>
       </c>
-      <c r="C27" s="4" t="n">
-        <v>0.008067129629629629</v>
-      </c>
       <c r="D27" s="4" t="n">
         <v>0.0040625</v>
       </c>
@@ -23375,9 +22112,6 @@
       <c r="B28" s="4" t="n">
         <v>0.003842592592592593</v>
       </c>
-      <c r="C28" s="4" t="n">
-        <v>0.003842592592592593</v>
-      </c>
       <c r="D28" s="4" t="n">
         <v>0</v>
       </c>
@@ -23394,9 +22128,6 @@
       <c r="B29" s="4" t="n">
         <v>0.003530092592592592</v>
       </c>
-      <c r="C29" s="4" t="n">
-        <v>0.007060185185185185</v>
-      </c>
       <c r="D29" s="4" t="n">
         <v>0.003877314814814815</v>
       </c>
@@ -23413,9 +22144,6 @@
       <c r="B30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" s="4" t="n">
         <v>0</v>
       </c>
@@ -23432,9 +22160,6 @@
       <c r="B31" s="4" t="n">
         <v>0.003877314814814814</v>
       </c>
-      <c r="C31" s="4" t="n">
-        <v>0.007754629629629629</v>
-      </c>
       <c r="D31" s="4" t="n">
         <v>0.003993055555555555</v>
       </c>
@@ -23451,9 +22176,6 @@
       <c r="B32" s="4" t="n">
         <v>0.003420138888888889</v>
       </c>
-      <c r="C32" s="4" t="n">
-        <v>0.006840277777777778</v>
-      </c>
       <c r="D32" s="4" t="n">
         <v>0.003136574074074074</v>
       </c>
@@ -23470,9 +22192,6 @@
       <c r="B33" s="4" t="n">
         <v>0.00353587962962963</v>
       </c>
-      <c r="C33" s="4" t="n">
-        <v>0.007071759259259259</v>
-      </c>
       <c r="D33" s="4" t="n">
         <v>0.003518518518518518</v>
       </c>
@@ -23489,9 +22208,6 @@
       <c r="B34" s="4" t="n">
         <v>0.003842592592592593</v>
       </c>
-      <c r="C34" s="4" t="n">
-        <v>0.003842592592592593</v>
-      </c>
       <c r="D34" s="4" t="n">
         <v>0</v>
       </c>
@@ -23508,9 +22224,6 @@
       <c r="B35" s="4" t="n">
         <v>0.003512731481481481</v>
       </c>
-      <c r="C35" s="4" t="n">
-        <v>0.007025462962962963</v>
-      </c>
       <c r="D35" s="4" t="n">
         <v>0.003391203703703704</v>
       </c>
@@ -23527,9 +22240,6 @@
       <c r="B36" s="4" t="n">
         <v>0.003663194444444445</v>
       </c>
-      <c r="C36" s="4" t="n">
-        <v>0.007326388888888889</v>
-      </c>
       <c r="D36" s="4" t="n">
         <v>0.003217592592592593</v>
       </c>
@@ -23546,9 +22256,6 @@
       <c r="B37" s="4" t="n">
         <v>0.003935185185185185</v>
       </c>
-      <c r="C37" s="4" t="n">
-        <v>0.00787037037037037</v>
-      </c>
       <c r="D37" s="4" t="n">
         <v>0.003877314814814815</v>
       </c>
@@ -23565,9 +22272,6 @@
       <c r="B38" s="4" t="n">
         <v>0.003559027777777778</v>
       </c>
-      <c r="C38" s="4" t="n">
-        <v>0.007118055555555555</v>
-      </c>
       <c r="D38" s="4" t="n">
         <v>0.003287037037037037</v>
       </c>
@@ -23584,9 +22288,6 @@
       <c r="B39" s="4" t="n">
         <v>0.003125</v>
       </c>
-      <c r="C39" s="4" t="n">
-        <v>0.003125</v>
-      </c>
       <c r="D39" s="4" t="n">
         <v>0.003125</v>
       </c>
@@ -23603,9 +22304,6 @@
       <c r="B40" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D40" s="4" t="n">
         <v>0</v>
       </c>
@@ -23622,9 +22320,6 @@
       <c r="B41" s="4" t="n">
         <v>0.003547453703703704</v>
       </c>
-      <c r="C41" s="4" t="n">
-        <v>0.007094907407407407</v>
-      </c>
       <c r="D41" s="4" t="n">
         <v>0.003900462962962963</v>
       </c>
@@ -23641,9 +22336,6 @@
       <c r="B42" s="4" t="n">
         <v>0.003946759259259259</v>
       </c>
-      <c r="C42" s="4" t="n">
-        <v>0.003946759259259259</v>
-      </c>
       <c r="D42" s="4" t="n">
         <v>0</v>
       </c>
@@ -23660,9 +22352,6 @@
       <c r="B43" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C43" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D43" s="4" t="n">
         <v>0</v>
       </c>
@@ -23679,9 +22368,6 @@
       <c r="B44" s="4" t="n">
         <v>0.003333333333333333</v>
       </c>
-      <c r="C44" s="4" t="n">
-        <v>0.006666666666666666</v>
-      </c>
       <c r="D44" s="4" t="n">
         <v>0.003368055555555556</v>
       </c>
@@ -23698,9 +22384,6 @@
       <c r="B45" s="4" t="n">
         <v>0.003900462962962963</v>
       </c>
-      <c r="C45" s="4" t="n">
-        <v>0.007800925925925926</v>
-      </c>
       <c r="D45" s="4" t="n">
         <v>0.004050925925925926</v>
       </c>
@@ -23717,9 +22400,6 @@
       <c r="B46" s="4" t="n">
         <v>0.003599537037037037</v>
       </c>
-      <c r="C46" s="4" t="n">
-        <v>0.007199074074074075</v>
-      </c>
       <c r="D46" s="4" t="n">
         <v>0.003645833333333333</v>
       </c>
@@ -23736,9 +22416,6 @@
       <c r="B47" s="4" t="n">
         <v>0.003877314814814815</v>
       </c>
-      <c r="C47" s="4" t="n">
-        <v>0.003877314814814815</v>
-      </c>
       <c r="D47" s="4" t="n">
         <v>0.003877314814814815</v>
       </c>
@@ -23755,9 +22432,6 @@
       <c r="B48" s="4" t="n">
         <v>0.004108796296296296</v>
       </c>
-      <c r="C48" s="4" t="n">
-        <v>0.004108796296296296</v>
-      </c>
       <c r="D48" s="4" t="n">
         <v>0</v>
       </c>
@@ -23774,9 +22448,6 @@
       <c r="B49" s="4" t="n">
         <v>0.004027777777777778</v>
       </c>
-      <c r="C49" s="4" t="n">
-        <v>0.008055555555555555</v>
-      </c>
       <c r="D49" s="4" t="n">
         <v>0.004108796296296296</v>
       </c>
@@ -23793,9 +22464,6 @@
       <c r="B50" s="4" t="n">
         <v>0.003402777777777778</v>
       </c>
-      <c r="C50" s="4" t="n">
-        <v>0.006805555555555556</v>
-      </c>
       <c r="D50" s="4" t="n">
         <v>0.003136574074074074</v>
       </c>
@@ -23812,9 +22480,6 @@
       <c r="B51" s="4" t="n">
         <v>0.004120370370370371</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>0.004120370370370371</v>
-      </c>
       <c r="D51" s="4" t="n">
         <v>0.004120370370370371</v>
       </c>
@@ -23831,9 +22496,6 @@
       <c r="B52" s="4" t="n">
         <v>0.003518518518518518</v>
       </c>
-      <c r="C52" s="4" t="n">
-        <v>0.003518518518518518</v>
-      </c>
       <c r="D52" s="4" t="n">
         <v>0.003518518518518518</v>
       </c>
@@ -23850,9 +22512,6 @@
       <c r="B53" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="D53" s="4" t="n">
         <v>0</v>
       </c>
@@ -23869,9 +22528,6 @@
       <c r="B54" s="4" t="n">
         <v>0.00380787037037037</v>
       </c>
-      <c r="C54" s="4" t="n">
-        <v>0.007615740740740741</v>
-      </c>
       <c r="D54" s="4" t="n">
         <v>0.003703703703703704</v>
       </c>
@@ -23888,9 +22544,6 @@
       <c r="B55" s="4" t="n">
         <v>0.003663194444444445</v>
       </c>
-      <c r="C55" s="4" t="n">
-        <v>0.007326388888888889</v>
-      </c>
       <c r="D55" s="4" t="n">
         <v>0.003842592592592593</v>
       </c>
@@ -23907,9 +22560,6 @@
       <c r="B56" s="4" t="n">
         <v>0.003761574074074074</v>
       </c>
-      <c r="C56" s="4" t="n">
-        <v>0.003761574074074074</v>
-      </c>
       <c r="D56" s="4" t="n">
         <v>0.003761574074074074</v>
       </c>
@@ -23924,9 +22574,6 @@
         </is>
       </c>
       <c r="B57" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D57" s="4" t="n">
@@ -28760,8 +27407,8 @@
           <t>Rodrigo Araya</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>0.8868055555555555</v>
+      <c r="B2" t="n">
+        <v>0.1972222222222222</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.1576388888888889</v>
@@ -28794,8 +27441,8 @@
           <t>claudio correa</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>0.1902777777777778</v>
+      <c r="B3" t="n">
+        <v>0.09166666666666666</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.04027777777777778</v>
@@ -28828,7 +27475,7 @@
           <t>Gabriel San Martín</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
@@ -28862,8 +27509,8 @@
           <t>Francisco Wendt</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0.7041666666666666</v>
+      <c r="B5" t="n">
+        <v>0.1166666666666667</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.075</v>
@@ -28896,8 +27543,8 @@
           <t>Eduardo Azocar Farias</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0.3</v>
+      <c r="B6" t="n">
+        <v>0.1277777777777778</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.04375</v>
@@ -28930,8 +27577,8 @@
           <t>Nicolás Manuel del Castillo Pairoa</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0.3055555555555555</v>
+      <c r="B7" t="n">
+        <v>0.04097222222222222</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0.04097222222222222</v>
@@ -28964,8 +27611,8 @@
           <t>Francisco Ramírez</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0.5506944444444445</v>
+      <c r="B8" t="n">
+        <v>0.1</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.02291666666666667</v>
@@ -28998,8 +27645,8 @@
           <t>Manuel Segura</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0.4416666666666667</v>
+      <c r="B9" t="n">
+        <v>0.125</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0.02986111111111111</v>
@@ -29032,8 +27679,8 @@
           <t>Matías Ramírez Torrealba</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>0.8152777777777778</v>
+      <c r="B10" t="n">
+        <v>0.1993055555555556</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.1041666666666667</v>
@@ -29066,8 +27713,8 @@
           <t>Rod Qzd</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0.1048611111111111</v>
+      <c r="B11" t="n">
+        <v>0.1006944444444444</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0.07847222222222222</v>
@@ -29100,8 +27747,8 @@
           <t>Nicolas Eterovic</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>0.2194444444444444</v>
+      <c r="B12" t="n">
+        <v>0.03125</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0.03125</v>
@@ -29134,7 +27781,7 @@
           <t>Cristóbal Silva</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="4" t="n">
@@ -29168,7 +27815,7 @@
           <t>Edu Villouta</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="4" t="n">
@@ -29202,8 +27849,8 @@
           <t>Mario Aguilera Muñoz</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>0.3736111111111111</v>
+      <c r="B15" t="n">
+        <v>0.05902777777777778</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0.02777777777777778</v>
@@ -29236,8 +27883,8 @@
           <t>Marcelo Lazen</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0.1888888888888889</v>
+      <c r="B16" t="n">
+        <v>0.08472222222222223</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.05416666666666667</v>
@@ -29270,7 +27917,7 @@
           <t>Dagoberto Pérez</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" t="n">
         <v>0.04305555555555556</v>
       </c>
       <c r="C17" s="4" t="n">
@@ -29304,8 +27951,8 @@
           <t>Pablo Piwonka</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>0.3256944444444445</v>
+      <c r="B18" t="n">
+        <v>0.1902777777777778</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0.09444444444444444</v>
@@ -29338,8 +27985,8 @@
           <t>Pablo Contreras Choco</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>0.2819444444444444</v>
+      <c r="B19" t="n">
+        <v>0.08541666666666667</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0.05555555555555555</v>
@@ -29372,8 +28019,8 @@
           <t>Ignacio Coloma</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>0.2361111111111111</v>
+      <c r="B20" t="n">
+        <v>0.04027777777777778</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0.02986111111111111</v>
@@ -29406,8 +28053,8 @@
           <t>David Rodriguez</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>0.4006944444444445</v>
+      <c r="B21" t="n">
+        <v>0.2006944444444445</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>0.09722222222222222</v>
@@ -29440,7 +28087,7 @@
           <t>Héctor Fritz</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="4" t="n">
@@ -29474,8 +28121,8 @@
           <t>Ernesto Aramburu</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>0.5201388888888889</v>
+      <c r="B23" t="n">
+        <v>0.1243055555555556</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0.1243055555555556</v>
@@ -29508,7 +28155,7 @@
           <t>Sebastián Montero</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="4" t="n">
@@ -29542,8 +28189,8 @@
           <t>Cristobal Millar</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>0.1222222222222222</v>
+      <c r="B25" t="n">
+        <v>0.02777777777777778</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0.02777777777777778</v>
@@ -29576,8 +28223,8 @@
           <t>Tomas Echeverria</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>0.3895833333333333</v>
+      <c r="B26" t="n">
+        <v>0.07430555555555556</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0.04305555555555556</v>
@@ -29610,8 +28257,8 @@
           <t>Sebastian Vega</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>0.2513888888888889</v>
+      <c r="B27" t="n">
+        <v>0.08194444444444444</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.025</v>
@@ -29644,8 +28291,8 @@
           <t>Zyadd Elias Manzur Araya</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
-        <v>0.1631944444444444</v>
+      <c r="B28" t="n">
+        <v>0.02152777777777778</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0.02152777777777778</v>
@@ -29678,8 +28325,8 @@
           <t>Oscar Baez</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
-        <v>0.3236111111111111</v>
+      <c r="B29" t="n">
+        <v>0.1548611111111111</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>0.08819444444444445</v>
@@ -29712,8 +28359,8 @@
           <t>Rodrigo Quezada Jr</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
-        <v>0.4680555555555556</v>
+      <c r="B30" t="n">
+        <v>0.09722222222222222</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0.0798611111111111</v>
@@ -29746,8 +28393,8 @@
           <t>Jose Hurtado</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
-        <v>0.2791666666666667</v>
+      <c r="B31" t="n">
+        <v>0.04930555555555555</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0</v>
@@ -29780,7 +28427,7 @@
           <t>Andrea Regaldis</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="4" t="n">
@@ -29814,8 +28461,8 @@
           <t>Javier Ruiz Wood</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
-        <v>0.01458333333333333</v>
+      <c r="B33" t="n">
+        <v>0</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0</v>
@@ -29848,7 +28495,7 @@
           <t>Raimundo Betancourt Igualt</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="4" t="n">
@@ -29882,7 +28529,7 @@
           <t>Felipe Nallar</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="4" t="n">
@@ -29916,8 +28563,8 @@
           <t>Javier Quezada</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
-        <v>0.1298611111111111</v>
+      <c r="B36" t="n">
+        <v>0.06875000000000001</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0.04652777777777778</v>
@@ -29950,8 +28597,8 @@
           <t>Alvaro Leon</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
-        <v>0.1305555555555556</v>
+      <c r="B37" t="n">
+        <v>0.01875</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0.01875</v>
@@ -29984,7 +28631,7 @@
           <t>Sofia Cardoch</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="4" t="n">
@@ -30018,7 +28665,7 @@
           <t>SEBASTIAN MONTERO</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="4" t="n">
@@ -30052,7 +28699,7 @@
           <t>Marcelo Peñailillo</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="4" t="n">
@@ -30086,7 +28733,7 @@
           <t>Pablo de Iruarrizaga</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="4" t="n">
@@ -30120,7 +28767,7 @@
           <t>Alejandra Tobar</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="4" t="n">
@@ -30154,7 +28801,7 @@
           <t>Manuel Ignacio Puertas Figueroa</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="4" t="n">
@@ -30188,8 +28835,8 @@
           <t>Andrés Sánchez</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
-        <v>0.04722222222222222</v>
+      <c r="B44" t="n">
+        <v>0</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0</v>
@@ -30222,7 +28869,7 @@
           <t>Javier Gutiérrez</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" s="4" t="n">
@@ -30256,7 +28903,7 @@
           <t>Matías Corthorn</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="4" t="n">
@@ -30290,8 +28937,8 @@
           <t>Mario Perez</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
-        <v>0.2979166666666667</v>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>0</v>
@@ -30324,8 +28971,8 @@
           <t>Felipe Ochsenius</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
-        <v>0.2756944444444445</v>
+      <c r="B48" t="n">
+        <v>0.04861111111111111</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>0.03402777777777777</v>
@@ -30358,7 +29005,7 @@
           <t>Andre Hausberger</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="n">
@@ -30392,7 +29039,7 @@
           <t>Juan Pablo Peralta</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="n">
@@ -30426,7 +29073,7 @@
           <t>Maca Celis</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" s="4" t="n">
@@ -30460,7 +29107,7 @@
           <t>Rodrigo Orellana</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" s="4" t="n">
@@ -30494,7 +29141,7 @@
           <t>Andre Hausberger 🇦🇹</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="4" t="n">
@@ -30528,7 +29175,7 @@
           <t>Clara Cosentino</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" t="n">
         <v>0.04791666666666667</v>
       </c>
       <c r="C54" s="4" t="n">
@@ -30562,7 +29209,7 @@
           <t>Claudio Canales D.</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="4" t="n">
@@ -30596,7 +29243,7 @@
           <t>Claudio Reyes Villarroel</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="4" t="n">
@@ -30630,7 +29277,7 @@
           <t>Jose Antonio Cordova</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="4" t="n">
@@ -30664,7 +29311,7 @@
           <t>Lexie Kadlec</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="4" t="n">
@@ -30698,7 +29345,7 @@
           <t>Nicolas Morales Z</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="4" t="n">
@@ -30732,8 +29379,8 @@
           <t>Paulina Nucamendi</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
-        <v>0.06875000000000001</v>
+      <c r="B60" t="n">
+        <v>0</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>0</v>
@@ -30766,7 +29413,7 @@
           <t>Mirko Salfate</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" s="4" t="n">
@@ -30800,7 +29447,7 @@
           <t>Ricardo Gonzalez</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="4" t="n">
@@ -30834,7 +29481,7 @@
           <t>Juan Pablo Alliende</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" s="4" t="n">
@@ -30868,8 +29515,8 @@
           <t>Francisco Loayza</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
-        <v>0.1881944444444444</v>
+      <c r="B64" t="n">
+        <v>0</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>0</v>
@@ -30902,8 +29549,8 @@
           <t>Jordi Constans</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
-        <v>0.2777777777777778</v>
+      <c r="B65" t="n">
+        <v>0.05833333333333333</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>0</v>
@@ -30936,7 +29583,7 @@
           <t>Vicente Rodríguez</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" s="4" t="n">
@@ -30970,8 +29617,8 @@
           <t>Pedro De Las Heras</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
-        <v>0.4180555555555556</v>
+      <c r="B67" t="n">
+        <v>0.08333333333333333</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>0.05277777777777778</v>
@@ -31004,7 +29651,7 @@
           <t>José Francisco Sousa</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" s="4" t="n">
@@ -31038,8 +29685,8 @@
           <t>Juan Pablo Alliende Garcia De La Huerta</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
-        <v>0.2229166666666667</v>
+      <c r="B69" t="n">
+        <v>0</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>0</v>
@@ -31072,8 +29719,8 @@
           <t>Sulghey Lima</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
-        <v>0.2319444444444445</v>
+      <c r="B70" t="n">
+        <v>0</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>0</v>
@@ -31106,8 +29753,8 @@
           <t>Martín Guzmán</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
-        <v>0.4277777777777778</v>
+      <c r="B71" t="n">
+        <v>0.1270833333333333</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>0.04652777777777778</v>
@@ -31140,8 +29787,8 @@
           <t>Diego Toledo</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
-        <v>0.325</v>
+      <c r="B72" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>0.07847222222222222</v>
@@ -31174,7 +29821,7 @@
           <t>Mateo Pacheco</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" s="4" t="n">
@@ -31208,8 +29855,8 @@
           <t>Juan Guillermo González</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
-        <v>0.07569444444444444</v>
+      <c r="B74" t="n">
+        <v>0.01388888888888889</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>0.01388888888888889</v>
@@ -31242,8 +29889,8 @@
           <t>Antonio Rossi</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
-        <v>0.2479166666666667</v>
+      <c r="B75" t="n">
+        <v>0.1430555555555555</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>0.08055555555555556</v>
@@ -31276,8 +29923,8 @@
           <t>Fernando Ostornol</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
-        <v>0.03402777777777778</v>
+      <c r="B76" t="n">
+        <v>0.01736111111111111</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>0.01736111111111111</v>
@@ -31310,8 +29957,8 @@
           <t>Sebastian Montero Allende</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
-        <v>0.4597222222222223</v>
+      <c r="B77" t="n">
+        <v>0.1076388888888889</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>0.01944444444444444</v>
@@ -31344,9 +29991,6 @@
           <t>Claudio Correa</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
-        <v>0.03263888888888889</v>
-      </c>
       <c r="C78" s="4" t="n">
         <v>0</v>
       </c>
@@ -31378,9 +30022,6 @@
           <t>Raúl Cornejo González</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
-        <v>0.1902777777777778</v>
-      </c>
       <c r="C79" s="4" t="n">
         <v>0</v>
       </c>
@@ -31412,9 +30053,6 @@
           <t>José María Cabrera</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
-        <v>0.06041666666666667</v>
-      </c>
       <c r="C80" s="4" t="n">
         <v>0</v>
       </c>
@@ -31446,9 +30084,6 @@
           <t>Tomas Galmez</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
-        <v>0.05347222222222223</v>
-      </c>
       <c r="C81" s="4" t="n">
         <v>0</v>
       </c>
@@ -31480,9 +30115,6 @@
           <t>SEBASTIAN MONTERO ALLENDE</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
-        <v>0.14375</v>
-      </c>
       <c r="C82" s="4" t="n">
         <v>0</v>
       </c>
@@ -31514,9 +30146,6 @@
           <t>Eduardo “Lalo” Jimenez</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
-        <v>0.1527777777777778</v>
-      </c>
       <c r="C83" s="4" t="n">
         <v>0</v>
       </c>
@@ -31548,9 +30177,6 @@
           <t>ANTONIO IGNACIO ZÁRATE RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
-        <v>0.1111111111111111</v>
-      </c>
       <c r="C84" s="4" t="n">
         <v>0</v>
       </c>
@@ -31581,9 +30207,6 @@
         <is>
           <t>Francisco Javier Aguirre</t>
         </is>
-      </c>
-      <c r="B85" s="4" t="n">
-        <v>0.4173611111111111</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>0</v>
@@ -31687,8 +30310,8 @@
           <t>Rodrigo Araya</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>2.615972222222222</v>
+      <c r="B2" t="n">
+        <v>0.7215277777777778</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.7215277777777778</v>
@@ -31721,8 +30344,8 @@
           <t>claudio correa</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>3.369444444444444</v>
+      <c r="B3" t="n">
+        <v>0.8527777777777777</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.3916666666666667</v>
@@ -31755,8 +30378,8 @@
           <t>Gabriel San Martín</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>1.859027777777778</v>
+      <c r="B4" t="n">
+        <v>0.3326388888888889</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.03125</v>
@@ -31789,8 +30412,8 @@
           <t>Francisco Wendt</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>2.077083333333333</v>
+      <c r="B5" t="n">
+        <v>0.3138888888888889</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.2868055555555555</v>
@@ -31823,8 +30446,8 @@
           <t>Eduardo Azocar Farias</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0.9881944444444444</v>
+      <c r="B6" t="n">
+        <v>0.4229166666666667</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.1819444444444444</v>
@@ -31857,8 +30480,8 @@
           <t>Nicolás Manuel del Castillo Pairoa</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>1.244444444444444</v>
+      <c r="B7" t="n">
+        <v>0.3694444444444445</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0.325</v>
@@ -31891,8 +30514,8 @@
           <t>Francisco Ramírez</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>1.981944444444444</v>
+      <c r="B8" t="n">
+        <v>0.5458333333333333</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.2576388888888889</v>
@@ -31925,8 +30548,8 @@
           <t>Manuel Segura</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0.9340277777777778</v>
+      <c r="B9" t="n">
+        <v>0.35625</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0.1152777777777778</v>
@@ -31959,8 +30582,8 @@
           <t>Matías Ramírez Torrealba</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>2.336805555555556</v>
+      <c r="B10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.2263888888888889</v>
@@ -31993,8 +30616,8 @@
           <t>Rod Qzd</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0.1791666666666667</v>
+      <c r="B11" t="n">
+        <v>0.1236111111111111</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>0.1236111111111111</v>
@@ -32027,8 +30650,8 @@
           <t>Nicolas Eterovic</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>1.185416666666667</v>
+      <c r="B12" t="n">
+        <v>0.6659722222222222</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0.4555555555555555</v>
@@ -32061,8 +30684,8 @@
           <t>Cristóbal Silva</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0.4736111111111111</v>
+      <c r="B13" t="n">
+        <v>0.1548611111111111</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0.05416666666666667</v>
@@ -32095,8 +30718,8 @@
           <t>Edu Villouta</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>0.5833333333333334</v>
+      <c r="B14" t="n">
+        <v>0.3048611111111111</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0.1201388888888889</v>
@@ -32129,8 +30752,8 @@
           <t>Mario Aguilera Muñoz</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>0.7819444444444444</v>
+      <c r="B15" t="n">
+        <v>0.1784722222222222</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0.1305555555555556</v>
@@ -32163,8 +30786,8 @@
           <t>Marcelo Lazen</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>1.355555555555556</v>
+      <c r="B16" t="n">
+        <v>0.4618055555555556</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.2305555555555556</v>
@@ -32197,8 +30820,8 @@
           <t>Dagoberto Pérez</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>2.519444444444444</v>
+      <c r="B17" t="n">
+        <v>0.8513888888888889</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0.3243055555555556</v>
@@ -32231,8 +30854,8 @@
           <t>Pablo Piwonka</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>0.6729166666666666</v>
+      <c r="B18" t="n">
+        <v>0.3666666666666666</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0.1243055555555556</v>
@@ -32265,8 +30888,8 @@
           <t>Pablo Contreras Choco</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>1.109027777777778</v>
+      <c r="B19" t="n">
+        <v>0.1555555555555556</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0.1555555555555556</v>
@@ -32299,8 +30922,8 @@
           <t>Ignacio Coloma</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>1.181944444444444</v>
+      <c r="B20" t="n">
+        <v>0.2319444444444445</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0.07708333333333334</v>
@@ -32333,8 +30956,8 @@
           <t>David Rodriguez</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>1.181944444444444</v>
+      <c r="B21" t="n">
+        <v>0.2326388888888889</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>0.03125</v>
@@ -32367,8 +30990,8 @@
           <t>Héctor Fritz</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>0.7291666666666666</v>
+      <c r="B22" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0.125</v>
@@ -32401,8 +31024,8 @@
           <t>Ernesto Aramburu</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>2.270138888888889</v>
+      <c r="B23" t="n">
+        <v>0.9256944444444445</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0.2597222222222222</v>
@@ -32435,7 +31058,7 @@
           <t>Sebastián Montero</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="4" t="n">
@@ -32469,8 +31092,8 @@
           <t>Cristobal Millar</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>1.170833333333333</v>
+      <c r="B25" t="n">
+        <v>0.2430555555555556</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0.1520833333333333</v>
@@ -32503,8 +31126,8 @@
           <t>Tomas Echeverria</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>0.3826388888888889</v>
+      <c r="B26" t="n">
+        <v>0.2590277777777778</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0.1201388888888889</v>
@@ -32537,8 +31160,8 @@
           <t>Sebastian Vega</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>0.66875</v>
+      <c r="B27" t="n">
+        <v>0.3666666666666666</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.1805555555555556</v>
@@ -32571,8 +31194,8 @@
           <t>Zyadd Elias Manzur Araya</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
-        <v>0.9083333333333333</v>
+      <c r="B28" t="n">
+        <v>0.15625</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0.1145833333333333</v>
@@ -32605,8 +31228,8 @@
           <t>Oscar Baez</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
-        <v>0.4083333333333333</v>
+      <c r="B29" t="n">
+        <v>0.3722222222222222</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>0.1625</v>
@@ -32639,8 +31262,8 @@
           <t>Rodrigo Quezada Jr</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
-        <v>0.4909722222222222</v>
+      <c r="B30" t="n">
+        <v>0.3506944444444444</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0.20625</v>
@@ -32673,8 +31296,8 @@
           <t>Jose Hurtado</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
-        <v>0.09027777777777778</v>
+      <c r="B31" t="n">
+        <v>0</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0</v>
@@ -32707,7 +31330,7 @@
           <t>Andrea Regaldis</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="4" t="n">
@@ -32741,8 +31364,8 @@
           <t>Javier Ruiz Wood</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
-        <v>0.125</v>
+      <c r="B33" t="n">
+        <v>0.04444444444444445</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0</v>
@@ -32775,7 +31398,7 @@
           <t>Raimundo Betancourt Igualt</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="4" t="n">
@@ -32809,7 +31432,7 @@
           <t>Felipe Nallar</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="4" t="n">
@@ -32843,8 +31466,8 @@
           <t>Javier Quezada</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
-        <v>0.4666666666666667</v>
+      <c r="B36" t="n">
+        <v>0.1520833333333333</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0</v>
@@ -32877,8 +31500,8 @@
           <t>Alvaro Leon</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
-        <v>0.06736111111111111</v>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0</v>
@@ -32911,8 +31534,8 @@
           <t>Sofia Cardoch</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
-        <v>0.7625</v>
+      <c r="B38" t="n">
+        <v>0.07847222222222222</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>0.07847222222222222</v>
@@ -32945,7 +31568,7 @@
           <t>SEBASTIAN MONTERO</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="4" t="n">
@@ -32979,7 +31602,7 @@
           <t>Marcelo Peñailillo</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="4" t="n">
@@ -33013,8 +31636,8 @@
           <t>Pablo de Iruarrizaga</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
-        <v>0.3631944444444444</v>
+      <c r="B41" t="n">
+        <v>0.1506944444444444</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>0.1506944444444444</v>
@@ -33047,8 +31670,8 @@
           <t>Alejandra Tobar</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
-        <v>0.0763888888888889</v>
+      <c r="B42" t="n">
+        <v>0</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
@@ -33081,7 +31704,7 @@
           <t>Manuel Ignacio Puertas Figueroa</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="4" t="n">
@@ -33115,8 +31738,8 @@
           <t>Andrés Sánchez</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
-        <v>2.252777777777778</v>
+      <c r="B44" t="n">
+        <v>0.1756944444444444</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0</v>
@@ -33149,8 +31772,8 @@
           <t>Javier Gutiérrez</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
-        <v>0.08125</v>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>0</v>
@@ -33183,8 +31806,8 @@
           <t>Matías Corthorn</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
-        <v>0.02708333333333333</v>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>0</v>
@@ -33217,8 +31840,8 @@
           <t>Mario Perez</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
-        <v>0.06944444444444445</v>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>0</v>
@@ -33251,7 +31874,7 @@
           <t>Felipe Ochsenius</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="4" t="n">
@@ -33285,7 +31908,7 @@
           <t>Andre Hausberger</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="n">
@@ -33319,7 +31942,7 @@
           <t>Juan Pablo Peralta</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="n">
@@ -33353,7 +31976,7 @@
           <t>Maca Celis</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" s="4" t="n">
@@ -33387,7 +32010,7 @@
           <t>Rodrigo Orellana</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" s="4" t="n">
@@ -33421,7 +32044,7 @@
           <t>Andre Hausberger 🇦🇹</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="4" t="n">
@@ -33455,7 +32078,7 @@
           <t>Clara Cosentino</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" s="4" t="n">
@@ -33489,7 +32112,7 @@
           <t>Claudio Canales D.</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="4" t="n">
@@ -33523,7 +32146,7 @@
           <t>Claudio Reyes Villarroel</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="4" t="n">
@@ -33557,7 +32180,7 @@
           <t>Jose Antonio Cordova</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="4" t="n">
@@ -33591,7 +32214,7 @@
           <t>Lexie Kadlec</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="4" t="n">
@@ -33625,7 +32248,7 @@
           <t>Nicolas Morales Z</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="4" t="n">
@@ -33659,8 +32282,8 @@
           <t>Paulina Nucamendi</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
-        <v>0.5541666666666667</v>
+      <c r="B60" t="n">
+        <v>0.09027777777777778</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>0.04583333333333333</v>
@@ -33693,8 +32316,8 @@
           <t>Mirko Salfate</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
-        <v>0.3513888888888889</v>
+      <c r="B61" t="n">
+        <v>0</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>0</v>
@@ -33727,7 +32350,7 @@
           <t>Ricardo Gonzalez</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="4" t="n">
@@ -33761,7 +32384,7 @@
           <t>Juan Pablo Alliende</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" s="4" t="n">
@@ -33795,8 +32418,8 @@
           <t>Francisco Loayza</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
-        <v>0.1381944444444445</v>
+      <c r="B64" t="n">
+        <v>0.02847222222222222</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>0</v>
@@ -33829,8 +32452,8 @@
           <t>Jordi Constans</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
-        <v>0.9444444444444444</v>
+      <c r="B65" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>0.1930555555555556</v>
@@ -33863,7 +32486,7 @@
           <t>Vicente Rodríguez</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" s="4" t="n">
@@ -33897,8 +32520,8 @@
           <t>Pedro De Las Heras</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
-        <v>1.229861111111111</v>
+      <c r="B67" t="n">
+        <v>0.4041666666666667</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>0.05347222222222222</v>
@@ -33931,7 +32554,7 @@
           <t>José Francisco Sousa</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" s="4" t="n">
@@ -33965,8 +32588,8 @@
           <t>Juan Pablo Alliende Garcia De La Huerta</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
-        <v>0.4104166666666667</v>
+      <c r="B69" t="n">
+        <v>0.09027777777777778</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>0.09027777777777778</v>
@@ -33999,8 +32622,8 @@
           <t>Sulghey Lima</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
-        <v>0.4166666666666666</v>
+      <c r="B70" t="n">
+        <v>0</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>0</v>
@@ -34033,8 +32656,8 @@
           <t>Martín Guzmán</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
-        <v>0.4375</v>
+      <c r="B71" t="n">
+        <v>0.1826388888888889</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>0</v>
@@ -34067,8 +32690,8 @@
           <t>Diego Toledo</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
-        <v>1.034722222222222</v>
+      <c r="B72" t="n">
+        <v>0.2645833333333333</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>0.1354166666666667</v>
@@ -34101,8 +32724,8 @@
           <t>Mateo Pacheco</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
-        <v>0.2527777777777778</v>
+      <c r="B73" t="n">
+        <v>0.05208333333333334</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>0</v>
@@ -34135,8 +32758,8 @@
           <t>Juan Guillermo González</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
-        <v>0.1916666666666667</v>
+      <c r="B74" t="n">
+        <v>0.02569444444444444</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>0</v>
@@ -34169,8 +32792,8 @@
           <t>Antonio Rossi</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
-        <v>0.3736111111111111</v>
+      <c r="B75" t="n">
+        <v>0.07708333333333334</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>0</v>
@@ -34203,8 +32826,8 @@
           <t>Fernando Ostornol</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
-        <v>0.08402777777777777</v>
+      <c r="B76" t="n">
+        <v>0.05555555555555555</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>0.02777777777777778</v>
@@ -34237,8 +32860,8 @@
           <t>Sebastian Montero Allende</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
-        <v>0.7465277777777778</v>
+      <c r="B77" t="n">
+        <v>0.3652777777777778</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>0.1722222222222222</v>
@@ -34271,9 +32894,6 @@
           <t>Tomas Galmez</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
-        <v>1.586805555555556</v>
-      </c>
       <c r="C78" s="4" t="n">
         <v>0.2708333333333333</v>
       </c>
@@ -34305,9 +32925,6 @@
           <t>Claudio Correa</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
-        <v>0.9604166666666667</v>
-      </c>
       <c r="C79" s="4" t="n">
         <v>0</v>
       </c>
@@ -34339,9 +32956,6 @@
           <t>Raúl Cornejo González</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
-        <v>0.41875</v>
-      </c>
       <c r="C80" s="4" t="n">
         <v>0</v>
       </c>
@@ -34373,9 +32987,6 @@
           <t>José María Cabrera</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
-        <v>0.35625</v>
-      </c>
       <c r="C81" s="4" t="n">
         <v>0</v>
       </c>
@@ -34407,9 +33018,6 @@
           <t>SEBASTIAN MONTERO ALLENDE</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
-        <v>0.1111111111111111</v>
-      </c>
       <c r="C82" s="4" t="n">
         <v>0</v>
       </c>
@@ -34441,9 +33049,6 @@
           <t>Eduardo “Lalo” Jimenez</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
-        <v>0.2826388888888889</v>
-      </c>
       <c r="C83" s="4" t="n">
         <v>0</v>
       </c>
@@ -34475,9 +33080,6 @@
           <t>ANTONIO IGNACIO ZÁRATE RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
-        <v>0.2715277777777778</v>
-      </c>
       <c r="C84" s="4" t="n">
         <v>0</v>
       </c>
@@ -34508,9 +33110,6 @@
         <is>
           <t>Francisco Javier Aguirre</t>
         </is>
-      </c>
-      <c r="B85" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>0</v>
@@ -34619,7 +33218,7 @@
           <t>Rodrigo Araya</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" t="n">
         <v>0.04722222222222222</v>
       </c>
       <c r="C2" s="4" t="n">
@@ -34656,8 +33255,8 @@
           <t>claudio correa</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>0.2465277777777778</v>
+      <c r="B3" t="n">
+        <v>0.09722222222222222</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0</v>
@@ -34693,8 +33292,8 @@
           <t>Gabriel San Martín</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>0.02083333333333333</v>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0</v>
@@ -34730,8 +33329,8 @@
           <t>Francisco Wendt</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0.9958333333333333</v>
+      <c r="B5" t="n">
+        <v>0.1791666666666667</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
@@ -34767,8 +33366,8 @@
           <t>Eduardo Azocar Farias</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0.3645833333333334</v>
+      <c r="B6" t="n">
+        <v>0.2604166666666667</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0</v>
@@ -34804,8 +33403,8 @@
           <t>Nicolás Manuel del Castillo Pairoa</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0.8090277777777778</v>
+      <c r="B7" t="n">
+        <v>0.16875</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
@@ -34841,8 +33440,8 @@
           <t>Francisco Ramírez</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0.7479166666666667</v>
+      <c r="B8" t="n">
+        <v>0.1284722222222222</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0</v>
@@ -34878,8 +33477,8 @@
           <t>Manuel Segura</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0.6111111111111112</v>
+      <c r="B9" t="n">
+        <v>0.09722222222222222</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0</v>
@@ -34915,8 +33514,8 @@
           <t>Matías Ramírez Torrealba</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>0.2833333333333333</v>
+      <c r="B10" t="n">
+        <v>0.09375</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0</v>
@@ -34952,7 +33551,7 @@
           <t>Rod Qzd</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" t="n">
         <v>0.2201388888888889</v>
       </c>
       <c r="C11" s="4" t="n">
@@ -34989,8 +33588,8 @@
           <t>Nicolas Eterovic</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>1.078472222222222</v>
+      <c r="B12" t="n">
+        <v>0.2604166666666667</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0</v>
@@ -35026,8 +33625,8 @@
           <t>Cristóbal Silva</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0.03541666666666667</v>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0</v>
@@ -35063,8 +33662,8 @@
           <t>Edu Villouta</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>0.5826388888888889</v>
+      <c r="B14" t="n">
+        <v>0.1583333333333333</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0</v>
@@ -35100,8 +33699,8 @@
           <t>Mario Aguilera Muñoz</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>0.4979166666666667</v>
+      <c r="B15" t="n">
+        <v>0.05902777777777778</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0</v>
@@ -35137,8 +33736,8 @@
           <t>Marcelo Lazen</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0.7597222222222222</v>
+      <c r="B16" t="n">
+        <v>0.09166666666666666</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0</v>
@@ -35174,8 +33773,8 @@
           <t>Dagoberto Pérez</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>0.3659722222222223</v>
+      <c r="B17" t="n">
+        <v>0.06736111111111111</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0</v>
@@ -35211,8 +33810,8 @@
           <t>Pablo Piwonka</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>0.5291666666666667</v>
+      <c r="B18" t="n">
+        <v>0.2027777777777778</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0</v>
@@ -35248,8 +33847,8 @@
           <t>Pablo Contreras Choco</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>0.5472222222222223</v>
+      <c r="B19" t="n">
+        <v>0.03125</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0</v>
@@ -35285,8 +33884,8 @@
           <t>Ignacio Coloma</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>0.4173611111111111</v>
+      <c r="B20" t="n">
+        <v>0.09305555555555556</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>0</v>
@@ -35322,8 +33921,8 @@
           <t>David Rodriguez</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>0.06319444444444444</v>
+      <c r="B21" t="n">
+        <v>0.03541666666666667</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>0</v>
@@ -35359,8 +33958,8 @@
           <t>Héctor Fritz</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>0.6</v>
+      <c r="B22" t="n">
+        <v>0.1451388888888889</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>0</v>
@@ -35396,8 +33995,8 @@
           <t>Ernesto Aramburu</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>0.6409722222222222</v>
+      <c r="B23" t="n">
+        <v>0.1159722222222222</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0</v>
@@ -35433,7 +34032,7 @@
           <t>Sebastián Montero</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="4" t="n">
@@ -35470,8 +34069,8 @@
           <t>Cristobal Millar</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>0.7958333333333334</v>
+      <c r="B25" t="n">
+        <v>0.09097222222222222</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0</v>
@@ -35507,8 +34106,8 @@
           <t>Tomas Echeverria</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>0.1430555555555555</v>
+      <c r="B26" t="n">
+        <v>0.07222222222222222</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0</v>
@@ -35544,8 +34143,8 @@
           <t>Sebastian Vega</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>0.4416666666666667</v>
+      <c r="B27" t="n">
+        <v>0.1854166666666667</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0</v>
@@ -35581,8 +34180,8 @@
           <t>Zyadd Elias Manzur Araya</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
-        <v>0.04305555555555556</v>
+      <c r="B28" t="n">
+        <v>0</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0</v>
@@ -35618,8 +34217,8 @@
           <t>Oscar Baez</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
-        <v>0.5333333333333333</v>
+      <c r="B29" t="n">
+        <v>0.08055555555555556</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>0</v>
@@ -35655,8 +34254,8 @@
           <t>Rodrigo Quezada Jr</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
-        <v>0.4888888888888889</v>
+      <c r="B30" t="n">
+        <v>0.1743055555555555</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0</v>
@@ -35692,7 +34291,7 @@
           <t>Jose Hurtado</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="4" t="n">
@@ -35729,7 +34328,7 @@
           <t>Andrea Regaldis</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="4" t="n">
@@ -35766,8 +34365,8 @@
           <t>Javier Ruiz Wood</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
-        <v>0.1006944444444444</v>
+      <c r="B33" t="n">
+        <v>0.01944444444444444</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0</v>
@@ -35803,8 +34402,8 @@
           <t>Raimundo Betancourt Igualt</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
-        <v>0.04722222222222222</v>
+      <c r="B34" t="n">
+        <v>0</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>0</v>
@@ -35840,8 +34439,8 @@
           <t>Felipe Nallar</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
-        <v>0.3444444444444444</v>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>0</v>
@@ -35877,8 +34476,8 @@
           <t>Javier Quezada</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
-        <v>0.06111111111111111</v>
+      <c r="B36" t="n">
+        <v>0</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0</v>
@@ -35914,8 +34513,8 @@
           <t>Alvaro Leon</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
-        <v>0.3006944444444444</v>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0</v>
@@ -35951,8 +34550,8 @@
           <t>Sofia Cardoch</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
-        <v>0.3034722222222222</v>
+      <c r="B38" t="n">
+        <v>0.05</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>0</v>
@@ -35988,7 +34587,7 @@
           <t>SEBASTIAN MONTERO</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="4" t="n">
@@ -36025,7 +34624,7 @@
           <t>Marcelo Peñailillo</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="4" t="n">
@@ -36062,8 +34661,8 @@
           <t>Pablo de Iruarrizaga</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
-        <v>0.08402777777777778</v>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>0</v>
@@ -36099,8 +34698,8 @@
           <t>Alejandra Tobar</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
-        <v>0.08611111111111111</v>
+      <c r="B42" t="n">
+        <v>0.04930555555555555</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>0</v>
@@ -36136,7 +34735,7 @@
           <t>Manuel Ignacio Puertas Figueroa</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="4" t="n">
@@ -36173,8 +34772,8 @@
           <t>Andrés Sánchez</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
-        <v>0.4104166666666667</v>
+      <c r="B44" t="n">
+        <v>0</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0</v>
@@ -36210,8 +34809,8 @@
           <t>Javier Gutiérrez</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
-        <v>0.1027777777777778</v>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>0</v>
@@ -36247,8 +34846,8 @@
           <t>Matías Corthorn</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
-        <v>0.1423611111111111</v>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>0</v>
@@ -36284,8 +34883,8 @@
           <t>Mario Perez</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
-        <v>0.03958333333333333</v>
+      <c r="B47" t="n">
+        <v>0</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>0</v>
@@ -36321,8 +34920,8 @@
           <t>Felipe Ochsenius</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
-        <v>0.07083333333333333</v>
+      <c r="B48" t="n">
+        <v>0</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>0</v>
@@ -36358,7 +34957,7 @@
           <t>Andre Hausberger</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="n">
@@ -36395,7 +34994,7 @@
           <t>Juan Pablo Peralta</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="n">
@@ -36432,8 +35031,8 @@
           <t>Maca Celis</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
-        <v>0.1590277777777778</v>
+      <c r="B51" t="n">
+        <v>0</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>0</v>
@@ -36469,7 +35068,7 @@
           <t>Rodrigo Orellana</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" s="4" t="n">
@@ -36506,7 +35105,7 @@
           <t>Andre Hausberger 🇦🇹</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="4" t="n">
@@ -36543,8 +35142,8 @@
           <t>Clara Cosentino</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
-        <v>0.05</v>
+      <c r="B54" t="n">
+        <v>0.03472222222222222</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>0</v>
@@ -36580,7 +35179,7 @@
           <t>Claudio Canales D.</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="4" t="n">
@@ -36617,7 +35216,7 @@
           <t>Claudio Reyes Villarroel</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="4" t="n">
@@ -36654,7 +35253,7 @@
           <t>Jose Antonio Cordova</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="4" t="n">
@@ -36691,7 +35290,7 @@
           <t>Lexie Kadlec</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="4" t="n">
@@ -36728,7 +35327,7 @@
           <t>Nicolas Morales Z</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="4" t="n">
@@ -36765,8 +35364,8 @@
           <t>Paulina Nucamendi</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
-        <v>0.1993055555555556</v>
+      <c r="B60" t="n">
+        <v>0.02152777777777778</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>0</v>
@@ -36802,7 +35401,7 @@
           <t>Mirko Salfate</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" s="4" t="n">
@@ -36839,7 +35438,7 @@
           <t>Ricardo Gonzalez</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="4" t="n">
@@ -36876,7 +35475,7 @@
           <t>Juan Pablo Alliende</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" s="4" t="n">
@@ -36913,8 +35512,8 @@
           <t>Francisco Loayza</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
-        <v>0.04861111111111111</v>
+      <c r="B64" t="n">
+        <v>0</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>0</v>
@@ -36950,8 +35549,8 @@
           <t>Jordi Constans</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
-        <v>0.3590277777777778</v>
+      <c r="B65" t="n">
+        <v>0.1430555555555555</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>0</v>
@@ -36987,8 +35586,8 @@
           <t>Vicente Rodríguez</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
-        <v>0.3541666666666667</v>
+      <c r="B66" t="n">
+        <v>0.1506944444444444</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>0</v>
@@ -37024,7 +35623,7 @@
           <t>Pedro De Las Heras</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" t="n">
         <v>0.03125</v>
       </c>
       <c r="C67" s="4" t="n">
@@ -37061,8 +35660,8 @@
           <t>José Francisco Sousa</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
-        <v>0.02083333333333333</v>
+      <c r="B68" t="n">
+        <v>0</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>0</v>
@@ -37098,8 +35697,8 @@
           <t>Juan Pablo Alliende Garcia De La Huerta</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
-        <v>0.2395833333333333</v>
+      <c r="B69" t="n">
+        <v>0.06666666666666667</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>0</v>
@@ -37135,8 +35734,8 @@
           <t>Sulghey Lima</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
-        <v>0.3756944444444444</v>
+      <c r="B70" t="n">
+        <v>0</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>0</v>
@@ -37172,8 +35771,8 @@
           <t>Martín Guzmán</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
-        <v>0.3263888888888889</v>
+      <c r="B71" t="n">
+        <v>0.05833333333333333</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>0</v>
@@ -37209,8 +35808,8 @@
           <t>Diego Toledo</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
-        <v>0.11875</v>
+      <c r="B72" t="n">
+        <v>0</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>0</v>
@@ -37246,8 +35845,8 @@
           <t>Mateo Pacheco</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
-        <v>0.2993055555555555</v>
+      <c r="B73" t="n">
+        <v>0.06388888888888888</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>0</v>
@@ -37283,8 +35882,8 @@
           <t>Juan Guillermo González</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
-        <v>0.09722222222222222</v>
+      <c r="B74" t="n">
+        <v>0.01736111111111111</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>0</v>
@@ -37320,8 +35919,8 @@
           <t>Antonio Rossi</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
-        <v>0.01458333333333333</v>
+      <c r="B75" t="n">
+        <v>0</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>0</v>
@@ -37357,8 +35956,8 @@
           <t>Fernando Ostornol</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
-        <v>1.191666666666667</v>
+      <c r="B76" t="n">
+        <v>0.4263888888888889</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>0</v>
@@ -37394,8 +35993,8 @@
           <t>Sebastian Montero Allende</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
-        <v>0.6340277777777777</v>
+      <c r="B77" t="n">
+        <v>0.2715277777777778</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>0</v>
@@ -37431,8 +36030,8 @@
           <t>Tomas Galmez</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
-        <v>0.5437500000000001</v>
+      <c r="B78" t="n">
+        <v>0.04027777777777778</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>0</v>
@@ -37468,8 +36067,8 @@
           <t>Raúl Cornejo González</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
-        <v>0.5694444444444444</v>
+      <c r="B79" t="n">
+        <v>0.1520833333333333</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>0</v>
@@ -37505,8 +36104,8 @@
           <t>Agustín De la Cuesta</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
-        <v>0.11875</v>
+      <c r="B80" t="n">
+        <v>0.02638888888888889</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>0</v>
@@ -37542,7 +36141,7 @@
           <t>Francisco Javier Aguirre</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" s="4" t="n">
@@ -37579,8 +36178,8 @@
           <t>Antonio Ignacio Zárate Rodríguez</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
-        <v>0.3013888888888889</v>
+      <c r="B82" t="n">
+        <v>0.05416666666666667</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>0</v>
@@ -37616,8 +36215,8 @@
           <t>Eduardo Jimenez</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
-        <v>0.225</v>
+      <c r="B83" t="n">
+        <v>0.1270833333333333</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>0</v>
@@ -37653,8 +36252,8 @@
           <t>José María Cabrera</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
-        <v>0.3243055555555556</v>
+      <c r="B84" t="n">
+        <v>0</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>0</v>
@@ -37690,8 +36289,8 @@
           <t>Eduardo “Lalo” Jimenez</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
-        <v>0.2972222222222222</v>
+      <c r="B85" t="n">
+        <v>0</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>0</v>
@@ -37722,10 +36321,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B86" s="4" t="n">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" s="4" t="n">
@@ -37757,10 +36356,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" s="4" t="n">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" s="4" t="n">
@@ -37792,10 +36391,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B88" s="4" t="n">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" s="4" t="n">
@@ -37827,10 +36426,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B89" s="4" t="n">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" s="4" t="n">
@@ -37867,9 +36466,6 @@
           <t>Claudio Correa</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
-        <v>0.04097222222222222</v>
-      </c>
       <c r="C90" s="4" t="n">
         <v>0</v>
       </c>
@@ -37904,9 +36500,6 @@
           <t>SEBASTIAN MONTERO ALLENDE</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
-        <v>0.4055555555555556</v>
-      </c>
       <c r="C91" s="4" t="n">
         <v>0</v>
       </c>
@@ -37940,9 +36533,6 @@
         <is>
           <t>ANTONIO IGNACIO ZÁRATE RODRÍGUEZ</t>
         </is>
-      </c>
-      <c r="B92" s="4" t="n">
-        <v>0.2263888888888889</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>0</v>
@@ -38114,7 +36704,7 @@
         <v>1.119689911817205</v>
       </c>
       <c r="D3" t="n">
-        <v>7.837829382720432</v>
+        <v>3.055783454850767</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -38200,7 +36790,7 @@
         <v>0.5801376109951967</v>
       </c>
       <c r="D5" t="n">
-        <v>4.641100887961573</v>
+        <v>2.176528690719365</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -38243,7 +36833,7 @@
         <v>0.7053544454017751</v>
       </c>
       <c r="D6" t="n">
-        <v>3.526772227008875</v>
+        <v>1.956252118295303</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -38286,7 +36876,7 @@
         <v>0.5233458736783605</v>
       </c>
       <c r="D7" t="n">
-        <v>3.663421115748523</v>
+        <v>1.78237334927551</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -38329,7 +36919,7 @@
         <v>0.642569285598332</v>
       </c>
       <c r="D8" t="n">
-        <v>5.783123570384989</v>
+        <v>2.634465966861923</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -38372,7 +36962,7 @@
         <v>0.4507602526810677</v>
       </c>
       <c r="D9" t="n">
-        <v>3.155321768767474</v>
+        <v>1.47257438912243</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -38415,7 +37005,7 @@
         <v>0.7672015176444014</v>
       </c>
       <c r="D10" t="n">
-        <v>6.137612141155211</v>
+        <v>2.350086520430814</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -38458,7 +37048,7 @@
         <v>0.8086764018247005</v>
       </c>
       <c r="D11" t="n">
-        <v>3.234705607298802</v>
+        <v>1.234705607298802</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -38501,7 +37091,7 @@
         <v>0.6074431327277254</v>
       </c>
       <c r="D12" t="n">
-        <v>3.644658796366353</v>
+        <v>1.883479824154514</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -38544,7 +37134,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -38630,7 +37220,7 @@
         <v>0.5010457692658237</v>
       </c>
       <c r="D15" t="n">
-        <v>4.509411923392413</v>
+        <v>2.036332109603515</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -38673,7 +37263,7 @@
         <v>0.7717068723091514</v>
       </c>
       <c r="D16" t="n">
-        <v>3.858534361545757</v>
+        <v>2.704190398310298</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -38759,7 +37349,7 @@
         <v>0.624702013057045</v>
       </c>
       <c r="D18" t="n">
-        <v>4.372914091399315</v>
+        <v>1.682996379160483</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -38802,7 +37392,7 @@
         <v>0.7739040084909137</v>
       </c>
       <c r="D19" t="n">
-        <v>4.643424050945482</v>
+        <v>1.781480474303367</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -38845,7 +37435,7 @@
         <v>0.7002569811747218</v>
       </c>
       <c r="D20" t="n">
-        <v>4.201541887048331</v>
+        <v>2.401212077559539</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -38888,7 +37478,7 @@
         <v>0.8571052764650093</v>
       </c>
       <c r="D21" t="n">
-        <v>3.428421105860037</v>
+        <v>2.396099358053167</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -38974,7 +37564,7 @@
         <v>0.6131929348704258</v>
       </c>
       <c r="D23" t="n">
-        <v>4.905543478963406</v>
+        <v>1.499126743307011</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -39017,7 +37607,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -39060,7 +37650,7 @@
         <v>0.8381726448241847</v>
       </c>
       <c r="D25" t="n">
-        <v>4.190863224120924</v>
+        <v>1.710061495804195</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -39103,7 +37693,7 @@
         <v>0.6886492750137242</v>
       </c>
       <c r="D26" t="n">
-        <v>2.754597100054897</v>
+        <v>2.314245575678545</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -39146,7 +37736,7 @@
         <v>0.6706400921115024</v>
       </c>
       <c r="D27" t="n">
-        <v>4.694480644780517</v>
+        <v>2.218765059637981</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -39189,7 +37779,7 @@
         <v>0.9266666666666667</v>
       </c>
       <c r="D28" t="n">
-        <v>2.78</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -39232,7 +37822,7 @@
         <v>0.6583962252269387</v>
       </c>
       <c r="D29" t="n">
-        <v>2.633584900907755</v>
+        <v>2.223584900907755</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -39275,7 +37865,7 @@
         <v>0.4944392557453963</v>
       </c>
       <c r="D30" t="n">
-        <v>2.472196278726981</v>
+        <v>2.133567993811167</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -39318,7 +37908,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -39361,7 +37951,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -39404,7 +37994,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -39447,7 +38037,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -39490,7 +38080,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -39533,7 +38123,7 @@
         <v>0.9487796532843897</v>
       </c>
       <c r="D36" t="n">
-        <v>3.795118613137559</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -39576,7 +38166,7 @@
         <v>0.7799999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -39662,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -39705,7 +38295,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -39791,7 +38381,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -39834,7 +38424,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -39877,7 +38467,7 @@
         <v>0.9940282781883797</v>
       </c>
       <c r="D44" t="n">
-        <v>5.964169669130278</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -39920,7 +38510,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -39963,7 +38553,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -40092,7 +38682,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -40135,7 +38725,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -40178,7 +38768,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -40221,7 +38811,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -40264,7 +38854,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -40307,7 +38897,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -40350,7 +38940,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -40393,7 +38983,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -40436,7 +39026,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -40479,7 +39069,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -40522,7 +39112,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -40565,7 +39155,7 @@
         <v>0.6504810353457233</v>
       </c>
       <c r="D60" t="n">
-        <v>2.601924141382893</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -40608,7 +39198,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -40651,7 +39241,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -40694,7 +39284,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -40737,7 +39327,7 @@
         <v>0.5268514793710278</v>
       </c>
       <c r="D64" t="n">
-        <v>2.634257396855139</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -40780,7 +39370,7 @@
         <v>0.6379266988939863</v>
       </c>
       <c r="D65" t="n">
-        <v>4.465486892257904</v>
+        <v>1.370797305346673</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -40909,7 +39499,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -40952,7 +39542,7 @@
         <v>0.5536400876470916</v>
       </c>
       <c r="D69" t="n">
-        <v>2.214560350588366</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -40995,7 +39585,7 @@
         <v>0.7424461197485011</v>
       </c>
       <c r="D70" t="n">
-        <v>5.197122838239507</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -41038,7 +39628,7 @@
         <v>0.6788411596489971</v>
       </c>
       <c r="D71" t="n">
-        <v>2.036523478946991</v>
+        <v>1.505020994984213</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -41081,7 +39671,7 @@
         <v>0.6400300714897583</v>
       </c>
       <c r="D72" t="n">
-        <v>2.560120285959033</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -41167,7 +39757,7 @@
         <v>0.5256789898101565</v>
       </c>
       <c r="D74" t="n">
-        <v>1.57703696943047</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -41210,7 +39800,7 @@
         <v>0.8012624036176915</v>
       </c>
       <c r="D75" t="n">
-        <v>2.403787210853074</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -41253,7 +39843,7 @@
         <v>1.018312616871374</v>
       </c>
       <c r="D76" t="n">
-        <v>3.054937850614122</v>
+        <v>1.961059278999584</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -41293,7 +39883,7 @@
         <v>0.5210142935521406</v>
       </c>
       <c r="D77" t="n">
-        <v>4.168114348417125</v>
+        <v>1.905454880461148</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -41332,9 +39922,6 @@
       <c r="C78" t="n">
         <v>1.21</v>
       </c>
-      <c r="D78" t="n">
-        <v>1.21</v>
-      </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
@@ -41372,9 +39959,6 @@
       <c r="C79" t="n">
         <v>0.32</v>
       </c>
-      <c r="D79" t="n">
-        <v>0.64</v>
-      </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
@@ -41412,9 +39996,6 @@
       <c r="C80" t="n">
         <v>0.37</v>
       </c>
-      <c r="D80" t="n">
-        <v>0.37</v>
-      </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
@@ -41452,9 +40033,6 @@
       <c r="C81" t="n">
         <v>0.5549999999999999</v>
       </c>
-      <c r="D81" t="n">
-        <v>1.11</v>
-      </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
@@ -41492,9 +40070,6 @@
       <c r="C82" t="n">
         <v>0.605</v>
       </c>
-      <c r="D82" t="n">
-        <v>1.21</v>
-      </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
@@ -41532,9 +40107,6 @@
       <c r="C83" t="n">
         <v>0.33</v>
       </c>
-      <c r="D83" t="n">
-        <v>0.6599999999999999</v>
-      </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
@@ -41572,9 +40144,6 @@
       <c r="C84" t="n">
         <v>0.335</v>
       </c>
-      <c r="D84" t="n">
-        <v>0.67</v>
-      </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
@@ -41610,9 +40179,6 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">

--- a/06 Sem (tst).xlsx
+++ b/06 Sem (tst).xlsx
@@ -28,7 +28,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ciclismo Desnivel" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trote Distancia" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trote Ritmo" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trote Desnivel" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ciclismo Max" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trote Max" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trote Desnivel" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16804,7 +16806,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.001446759259259259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -16855,7 +16857,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.001388888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -16872,7 +16874,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.001400462962962963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -16889,7 +16891,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.001215277777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -16906,7 +16908,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.001296296296296296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -16940,7 +16942,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.001238425925925926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -16974,7 +16976,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.001296296296296296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -16991,7 +16993,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.001342592592592592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -17025,7 +17027,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.001215277777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -17042,7 +17044,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.001400462962962963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -17059,7 +17061,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.001284722222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -17076,7 +17078,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.001481481481481481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -17110,7 +17112,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.001423611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -17144,7 +17146,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.001284722222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -17178,7 +17180,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.00130787037037037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -17195,7 +17197,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.001412037037037037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -17212,7 +17214,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.001331018518518518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -17229,7 +17231,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.001481481481481481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -17246,7 +17248,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.001435185185185185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -17297,7 +17299,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.001215277777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -17365,7 +17367,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.001261574074074074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -17416,7 +17418,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.001296296296296296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -17467,7 +17469,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.00125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -17501,7 +17503,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.001377314814814815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -17518,7 +17520,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.001481481481481481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -17535,7 +17537,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.001435185185185185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -17569,7 +17571,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.001458333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -17637,7 +17639,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.001400462962962963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -25549,6 +25551,1188 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>65.09999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rodrigo Araya</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Andrés Sánchez</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Claudio Correa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>219.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Matías Ramírez Torrealba</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>125.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Raúl Cornejo González</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Francisco Ramírez</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>José María Cabrera</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pablo Contreras Choco</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dagoberto Pérez</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tomas Galmez</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>76.09999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SEBASTIAN MONTERO ALLENDE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sulghey Lima</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ignacio Coloma</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>64.09999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Diego Toledo</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Eduardo “Lalo” Jimenez</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANTONIO IGNACIO ZÁRATE RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gabriel San Martín</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nicolás Manuel del Castillo Pairoa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fernando Ostornol</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ernesto Aramburu</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cristobal Millar</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Francisco Javier Aguirre</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mario Aguilera Muñoz</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pedro De Las Heras</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Paulina Nucamendi</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Zyadd Elias Manzur Araya</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Marcelo Lazen</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mirko Salfate</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rodrigo Quezada Jr</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mateo Pacheco</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nicolas Eterovic</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>David Rodriguez</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Martín Guzmán</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Juan Pablo Alliende Garcia De La Huerta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>77.09999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Héctor Fritz</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manuel Segura</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Francisco Loayza</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jose Hurtado</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Juan Guillermo González</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sofia Cardoch</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>65.59999999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Eduardo Azocar Farias</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>74.90000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Alvaro Leon</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oscar Baez</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Edu Villouta</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Felipe Ochsenius</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Cristóbal Silva</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Javier Gutiérrez</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Felipe Nallar</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tomas Echeverria</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Alejandra Tobar</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pablo de Iruarrizaga</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Vicente Rodríguez</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Matías Corthorn</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Maca Celis</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mario Perez</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sem 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Francisco Wendt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rodrigo Araya</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Andrés Sánchez</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Claudio Correa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Matías Ramírez Torrealba</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Raúl Cornejo González</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Francisco Ramírez</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>José María Cabrera</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pablo Contreras Choco</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dagoberto Pérez</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tomas Galmez</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SEBASTIAN MONTERO ALLENDE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sulghey Lima</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ignacio Coloma</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Diego Toledo</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Eduardo “Lalo” Jimenez</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANTONIO IGNACIO ZÁRATE RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gabriel San Martín</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nicolás Manuel del Castillo Pairoa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fernando Ostornol</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ernesto Aramburu</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cristobal Millar</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Francisco Javier Aguirre</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mario Aguilera Muñoz</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pedro De Las Heras</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Paulina Nucamendi</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Zyadd Elias Manzur Araya</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Marcelo Lazen</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mirko Salfate</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rodrigo Quezada Jr</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mateo Pacheco</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nicolas Eterovic</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>David Rodriguez</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Martín Guzmán</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Juan Pablo Alliende Garcia De La Huerta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Héctor Fritz</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manuel Segura</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Francisco Loayza</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jose Hurtado</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Juan Guillermo González</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sofia Cardoch</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Eduardo Azocar Farias</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Alvaro Leon</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oscar Baez</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Edu Villouta</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Felipe Ochsenius</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Cristóbal Silva</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Javier Gutiérrez</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Felipe Nallar</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tomas Echeverria</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Alejandra Tobar</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pablo de Iruarrizaga</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Vicente Rodríguez</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Matías Corthorn</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Maca Celis</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mario Perez</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sem 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Francisco Wendt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>253</v>
       </c>
     </row>
